--- a/data/comm.rates/Supplementary_Tables.xlsx
+++ b/data/comm.rates/Supplementary_Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelrain/Documents/Github/chemo.disturbances/chemo.disturbances/data/comm.rates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B89958A-46B1-EE4D-8DF0-ACCB61C62F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEBB98C-7305-2E45-BF9F-8220476C78F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16180" yWindow="500" windowWidth="12620" windowHeight="15800" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S1" sheetId="16" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4389" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4389" uniqueCount="222">
   <si>
     <t>Date</t>
   </si>
@@ -879,6 +879,12 @@
   <si>
     <t>.</t>
   </si>
+  <si>
+    <t>eDOM</t>
+  </si>
+  <si>
+    <t>oDOM</t>
+  </si>
 </sst>
 </file>
 
@@ -1127,13 +1133,10 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1142,6 +1145,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1161,7 +1167,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1449,7 +1455,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1471,11 +1477,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -1492,7 +1498,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>216</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1510,7 +1516,7 @@
       <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="8" t="s">
         <v>210</v>
       </c>
@@ -1526,7 +1532,7 @@
       <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="8" t="s">
         <v>182</v>
       </c>
@@ -1542,7 +1548,7 @@
       <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="8" t="s">
         <v>218</v>
       </c>
@@ -1558,7 +1564,7 @@
       <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="8" t="s">
         <v>213</v>
       </c>
@@ -1574,7 +1580,7 @@
       <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="8" t="s">
         <v>217</v>
       </c>
@@ -1587,7 +1593,7 @@
       <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="8" t="s">
         <v>212</v>
       </c>
@@ -1613,7 +1619,7 @@
       <c r="G10" s="31"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="35" t="s">
         <v>215</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1631,7 +1637,7 @@
       <c r="G11" s="31"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="8" t="s">
         <v>210</v>
       </c>
@@ -1647,7 +1653,7 @@
       <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="8" t="s">
         <v>182</v>
       </c>
@@ -1663,7 +1669,7 @@
       <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="8" t="s">
         <v>218</v>
       </c>
@@ -1679,7 +1685,7 @@
       <c r="G14" s="31"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="8" t="s">
         <v>213</v>
       </c>
@@ -1695,7 +1701,7 @@
       <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="8" t="s">
         <v>217</v>
       </c>
@@ -1708,7 +1714,7 @@
       <c r="G16" s="31"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="8" t="s">
         <v>212</v>
       </c>
@@ -1721,25 +1727,25 @@
       <c r="G17" s="31"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="36"/>
+      <c r="B21" s="34"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="36"/>
+      <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="36"/>
+      <c r="B23" s="34"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="36"/>
+      <c r="B24" s="34"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="36"/>
+      <c r="B25" s="34"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="36"/>
+      <c r="B26" s="34"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="36"/>
+      <c r="B27" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2022,7 +2028,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="34">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
       <c r="B2" s="10">
@@ -2046,7 +2052,7 @@
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -2076,7 +2082,7 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="10">
         <v>3</v>
       </c>
@@ -2102,7 +2108,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="10">
         <v>4</v>
       </c>
@@ -2126,7 +2132,7 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="10">
         <v>5</v>
       </c>
@@ -2148,7 +2154,7 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="10">
         <v>6</v>
       </c>
@@ -2170,7 +2176,7 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="34">
+      <c r="A8" s="35">
         <v>2</v>
       </c>
       <c r="B8" s="10">
@@ -2196,7 +2202,7 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="10">
         <v>8</v>
       </c>
@@ -2220,7 +2226,7 @@
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="10">
         <v>9</v>
       </c>
@@ -2250,7 +2256,7 @@
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="10">
         <v>10</v>
       </c>
@@ -2274,7 +2280,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="10">
         <v>11</v>
       </c>
@@ -2298,7 +2304,7 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="10">
         <v>12</v>
       </c>
@@ -2320,7 +2326,7 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="10">
         <v>13</v>
       </c>
@@ -2342,7 +2348,7 @@
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="34">
+      <c r="A15" s="35">
         <v>3</v>
       </c>
       <c r="B15" s="10">
@@ -2366,7 +2372,7 @@
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="10">
         <v>15</v>
       </c>
@@ -2392,7 +2398,7 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="10">
         <v>16</v>
       </c>
@@ -2422,7 +2428,7 @@
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="10">
         <v>17</v>
       </c>
@@ -2446,7 +2452,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="10">
         <v>18</v>
       </c>
@@ -2468,7 +2474,7 @@
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="10">
         <v>19</v>
       </c>
@@ -2494,7 +2500,7 @@
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="10">
         <v>20</v>
       </c>
@@ -2516,7 +2522,7 @@
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="34">
+      <c r="A22" s="35">
         <v>4</v>
       </c>
       <c r="B22" s="10">
@@ -2540,7 +2546,7 @@
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="10">
         <v>22</v>
       </c>
@@ -2564,7 +2570,7 @@
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="10">
         <v>23</v>
       </c>
@@ -2596,7 +2602,7 @@
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="10">
         <v>24</v>
       </c>
@@ -2620,7 +2626,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="34"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="10">
         <v>25</v>
       </c>
@@ -2642,7 +2648,7 @@
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="34"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="10">
         <v>26</v>
       </c>
@@ -2664,7 +2670,7 @@
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="34"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="10">
         <v>27</v>
       </c>
@@ -2688,7 +2694,7 @@
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="34">
+      <c r="A29" s="35">
         <v>5</v>
       </c>
       <c r="B29" s="10">
@@ -2712,7 +2718,7 @@
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="34"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="10">
         <v>29</v>
       </c>
@@ -2738,7 +2744,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="34"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="10">
         <v>30</v>
       </c>
@@ -2768,7 +2774,7 @@
       <c r="L31" s="3"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="34"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="10">
         <v>31</v>
       </c>
@@ -2792,7 +2798,7 @@
       <c r="L32" s="3"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="34"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="10">
         <v>32</v>
       </c>
@@ -2814,7 +2820,7 @@
       <c r="L33" s="3"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="34"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="10">
         <v>33</v>
       </c>
@@ -2836,7 +2842,7 @@
       <c r="L34" s="3"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="34"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="10">
         <v>34</v>
       </c>
@@ -2858,7 +2864,7 @@
       <c r="L35" s="3"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="34">
+      <c r="A36" s="35">
         <v>6</v>
       </c>
       <c r="B36" s="10">
@@ -2884,7 +2890,7 @@
       <c r="L36" s="3"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="34"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="10">
         <v>36</v>
       </c>
@@ -2908,7 +2914,7 @@
       <c r="L37" s="3"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="34"/>
+      <c r="A38" s="35"/>
       <c r="B38" s="10">
         <v>37</v>
       </c>
@@ -2938,7 +2944,7 @@
       <c r="L38" s="3"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="34"/>
+      <c r="A39" s="35"/>
       <c r="B39" s="10">
         <v>38</v>
       </c>
@@ -2962,7 +2968,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="34"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="10">
         <v>39</v>
       </c>
@@ -2988,7 +2994,7 @@
       <c r="L40" s="3"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="34"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="10">
         <v>40</v>
       </c>
@@ -3010,7 +3016,7 @@
       <c r="L41" s="3"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="34"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="10">
         <v>41</v>
       </c>
@@ -3064,20 +3070,20 @@
     <row r="1" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
     </row>
     <row r="2" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -3390,20 +3396,20 @@
     <row r="9" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
     </row>
     <row r="10" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
@@ -3672,20 +3678,20 @@
     <row r="16" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
     </row>
     <row r="17" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
@@ -4051,7 +4057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -7742,7 +7748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F83286-AC9E-4147-B21B-C224BF2AC0E7}">
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -9947,7 +9953,7 @@
   <dimension ref="A1:I565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -10000,7 +10006,7 @@
         <v>185</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D2" s="26">
         <v>38</v>
@@ -10029,7 +10035,7 @@
         <v>185</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D3" s="26">
         <v>38</v>
@@ -10058,7 +10064,7 @@
         <v>185</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D4" s="26">
         <v>38</v>
@@ -10087,7 +10093,7 @@
         <v>185</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D5" s="26">
         <v>38</v>
@@ -10116,7 +10122,7 @@
         <v>185</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D6" s="26">
         <v>38</v>
@@ -10145,7 +10151,7 @@
         <v>185</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D7" s="26">
         <v>38</v>
@@ -10174,7 +10180,7 @@
         <v>185</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D8" s="26">
         <v>38</v>
@@ -10203,7 +10209,7 @@
         <v>185</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D9" s="26">
         <v>38</v>
@@ -10232,7 +10238,7 @@
         <v>185</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D10" s="26">
         <v>38</v>
@@ -10261,7 +10267,7 @@
         <v>185</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D11" s="26">
         <v>38</v>
@@ -10290,7 +10296,7 @@
         <v>185</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D12" s="26">
         <v>38</v>
@@ -10319,7 +10325,7 @@
         <v>185</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D13" s="26">
         <v>38</v>
@@ -10348,7 +10354,7 @@
         <v>185</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D14" s="26">
         <v>38</v>
@@ -10377,7 +10383,7 @@
         <v>185</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D15" s="26">
         <v>38</v>
@@ -10406,7 +10412,7 @@
         <v>185</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D16" s="26">
         <v>38</v>
@@ -10435,7 +10441,7 @@
         <v>185</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D17" s="26">
         <v>38</v>
@@ -10464,7 +10470,7 @@
         <v>185</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D18" s="26">
         <v>38</v>
@@ -10493,7 +10499,7 @@
         <v>185</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D19" s="26">
         <v>38</v>
@@ -10522,7 +10528,7 @@
         <v>185</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D20" s="26">
         <v>38</v>
@@ -10551,7 +10557,7 @@
         <v>185</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D21" s="26">
         <v>38</v>
@@ -10580,7 +10586,7 @@
         <v>185</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D22" s="26">
         <v>38</v>
@@ -10609,7 +10615,7 @@
         <v>185</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D23" s="26">
         <v>38</v>
@@ -10638,7 +10644,7 @@
         <v>185</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D24" s="26">
         <v>38</v>
@@ -10667,7 +10673,7 @@
         <v>185</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D25" s="26">
         <v>38</v>
@@ -10696,7 +10702,7 @@
         <v>185</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D26" s="26">
         <v>38</v>
@@ -10723,7 +10729,7 @@
         <v>185</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D27" s="26">
         <v>51</v>
@@ -10750,7 +10756,7 @@
         <v>185</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D28" s="26">
         <v>38</v>
@@ -10777,7 +10783,7 @@
         <v>185</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D29" s="26">
         <v>51</v>
@@ -10804,7 +10810,7 @@
         <v>185</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D30" s="26">
         <v>38</v>
@@ -10831,7 +10837,7 @@
         <v>185</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D31" s="26">
         <v>51</v>
@@ -10858,7 +10864,7 @@
         <v>185</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D32" s="26">
         <v>38</v>
@@ -10885,7 +10891,7 @@
         <v>185</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D33" s="26">
         <v>51</v>
@@ -10912,7 +10918,7 @@
         <v>185</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D34" s="26">
         <v>38</v>
@@ -10939,7 +10945,7 @@
         <v>185</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D35" s="26">
         <v>51</v>
@@ -10966,7 +10972,7 @@
         <v>185</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D36" s="26">
         <v>38</v>
@@ -10993,7 +10999,7 @@
         <v>185</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D37" s="26">
         <v>51</v>
@@ -11020,7 +11026,7 @@
         <v>185</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D38" s="26">
         <v>38</v>
@@ -11049,7 +11055,7 @@
         <v>185</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D39" s="26">
         <v>47.5</v>
@@ -11078,7 +11084,7 @@
         <v>185</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D40" s="26">
         <v>38</v>
@@ -11107,7 +11113,7 @@
         <v>185</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D41" s="26">
         <v>47</v>
@@ -11136,7 +11142,7 @@
         <v>185</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D42" s="26">
         <v>38</v>
@@ -11165,7 +11171,7 @@
         <v>185</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D43" s="26">
         <v>47</v>
@@ -11194,7 +11200,7 @@
         <v>185</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D44" s="26">
         <v>38</v>
@@ -11223,7 +11229,7 @@
         <v>185</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D45" s="26">
         <v>46.5</v>
@@ -11252,7 +11258,7 @@
         <v>185</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D46" s="26">
         <v>38</v>
@@ -11281,7 +11287,7 @@
         <v>185</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D47" s="26">
         <v>48</v>
@@ -11310,7 +11316,7 @@
         <v>185</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D48" s="26">
         <v>38</v>
@@ -11339,7 +11345,7 @@
         <v>185</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D49" s="26">
         <v>47.5</v>
@@ -11368,7 +11374,7 @@
         <v>185</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D50" s="26">
         <v>38</v>
@@ -11397,7 +11403,7 @@
         <v>185</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D51" s="26">
         <v>45</v>
@@ -11426,7 +11432,7 @@
         <v>185</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D52" s="26">
         <v>38</v>
@@ -11455,7 +11461,7 @@
         <v>185</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D53" s="26">
         <v>45.5</v>
@@ -11484,7 +11490,7 @@
         <v>185</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D54" s="26">
         <v>38</v>
@@ -11513,7 +11519,7 @@
         <v>185</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D55" s="26">
         <v>45.5</v>
@@ -11542,7 +11548,7 @@
         <v>185</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D56" s="26">
         <v>38</v>
@@ -11571,7 +11577,7 @@
         <v>185</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D57" s="26">
         <v>45</v>
@@ -11600,7 +11606,7 @@
         <v>185</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D58" s="26">
         <v>38</v>
@@ -11629,7 +11635,7 @@
         <v>185</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D59" s="26">
         <v>45</v>
@@ -11658,7 +11664,7 @@
         <v>185</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D60" s="26">
         <v>38</v>
@@ -11687,7 +11693,7 @@
         <v>185</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D61" s="26">
         <v>45.5</v>
@@ -11716,7 +11722,7 @@
         <v>185</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D62" s="26">
         <v>38</v>
@@ -11745,7 +11751,7 @@
         <v>185</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D63" s="26">
         <v>44</v>
@@ -11774,7 +11780,7 @@
         <v>185</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D64" s="26">
         <v>38</v>
@@ -11803,7 +11809,7 @@
         <v>185</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D65" s="26">
         <v>44.5</v>
@@ -11832,7 +11838,7 @@
         <v>185</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D66" s="26">
         <v>38</v>
@@ -11861,7 +11867,7 @@
         <v>185</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D67" s="26">
         <v>44</v>
@@ -11890,7 +11896,7 @@
         <v>185</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D68" s="26">
         <v>38</v>
@@ -11919,7 +11925,7 @@
         <v>185</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D69" s="26">
         <v>44</v>
@@ -11948,7 +11954,7 @@
         <v>185</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D70" s="26">
         <v>38</v>
@@ -11977,7 +11983,7 @@
         <v>185</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D71" s="26">
         <v>43.5</v>
@@ -12006,7 +12012,7 @@
         <v>185</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D72" s="26">
         <v>38</v>
@@ -12035,7 +12041,7 @@
         <v>185</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D73" s="26">
         <v>44</v>
@@ -12064,7 +12070,7 @@
         <v>185</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D74" s="26">
         <v>38</v>
@@ -12093,7 +12099,7 @@
         <v>185</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D75" s="26">
         <v>43</v>
@@ -12120,7 +12126,7 @@
         <v>185</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D76" s="26">
         <v>38</v>
@@ -12149,7 +12155,7 @@
         <v>185</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D77" s="26">
         <v>42.5</v>
@@ -12178,7 +12184,7 @@
         <v>185</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D78" s="26">
         <v>38</v>
@@ -12207,7 +12213,7 @@
         <v>185</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D79" s="26">
         <v>42.5</v>
@@ -12236,7 +12242,7 @@
         <v>185</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D80" s="26">
         <v>38</v>
@@ -12265,7 +12271,7 @@
         <v>185</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D81" s="26">
         <v>42.5</v>
@@ -12294,7 +12300,7 @@
         <v>185</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D82" s="26">
         <v>38</v>
@@ -12323,7 +12329,7 @@
         <v>185</v>
       </c>
       <c r="C83" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D83" s="26">
         <v>42.5</v>
@@ -12352,7 +12358,7 @@
         <v>185</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D84" s="26">
         <v>38</v>
@@ -12381,7 +12387,7 @@
         <v>185</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D85" s="26">
         <v>43</v>
@@ -12410,7 +12416,7 @@
         <v>185</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D86" s="26">
         <v>38</v>
@@ -12439,7 +12445,7 @@
         <v>185</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D87" s="26">
         <v>42</v>
@@ -12468,7 +12474,7 @@
         <v>185</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D88" s="26">
         <v>38</v>
@@ -12497,7 +12503,7 @@
         <v>185</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D89" s="26">
         <v>42</v>
@@ -12526,7 +12532,7 @@
         <v>185</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D90" s="26">
         <v>38</v>
@@ -12555,7 +12561,7 @@
         <v>185</v>
       </c>
       <c r="C91" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D91" s="26">
         <v>41.5</v>
@@ -12584,7 +12590,7 @@
         <v>185</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D92" s="26">
         <v>38</v>
@@ -12613,7 +12619,7 @@
         <v>185</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D93" s="26">
         <v>41.5</v>
@@ -12642,7 +12648,7 @@
         <v>185</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D94" s="26">
         <v>38</v>
@@ -12671,7 +12677,7 @@
         <v>185</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D95" s="26">
         <v>41.5</v>
@@ -12700,7 +12706,7 @@
         <v>185</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D96" s="26">
         <v>38</v>
@@ -12729,7 +12735,7 @@
         <v>185</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D97" s="26">
         <v>42</v>
@@ -12758,7 +12764,7 @@
         <v>185</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D98" s="26">
         <v>38</v>
@@ -12787,7 +12793,7 @@
         <v>185</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D99" s="26">
         <v>41</v>
@@ -12816,7 +12822,7 @@
         <v>185</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D100" s="26">
         <v>38</v>
@@ -12845,7 +12851,7 @@
         <v>185</v>
       </c>
       <c r="C101" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D101" s="26">
         <v>41</v>
@@ -12874,7 +12880,7 @@
         <v>185</v>
       </c>
       <c r="C102" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D102" s="26">
         <v>38</v>
@@ -12903,7 +12909,7 @@
         <v>185</v>
       </c>
       <c r="C103" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D103" s="26">
         <v>41</v>
@@ -12932,7 +12938,7 @@
         <v>185</v>
       </c>
       <c r="C104" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D104" s="26">
         <v>38</v>
@@ -12961,7 +12967,7 @@
         <v>185</v>
       </c>
       <c r="C105" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D105" s="26">
         <v>41</v>
@@ -12990,7 +12996,7 @@
         <v>185</v>
       </c>
       <c r="C106" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D106" s="26">
         <v>38</v>
@@ -13019,7 +13025,7 @@
         <v>185</v>
       </c>
       <c r="C107" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D107" s="26">
         <v>41.5</v>
@@ -13048,7 +13054,7 @@
         <v>185</v>
       </c>
       <c r="C108" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D108" s="26">
         <v>38</v>
@@ -13077,7 +13083,7 @@
         <v>185</v>
       </c>
       <c r="C109" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D109" s="26">
         <v>41</v>
@@ -13106,7 +13112,7 @@
         <v>185</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D110" s="26">
         <v>38</v>
@@ -13135,7 +13141,7 @@
         <v>185</v>
       </c>
       <c r="C111" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D111" s="26">
         <v>40.5</v>
@@ -13164,7 +13170,7 @@
         <v>185</v>
       </c>
       <c r="C112" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D112" s="26">
         <v>38</v>
@@ -13193,7 +13199,7 @@
         <v>185</v>
       </c>
       <c r="C113" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D113" s="26">
         <v>40.5</v>
@@ -13222,7 +13228,7 @@
         <v>185</v>
       </c>
       <c r="C114" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D114" s="26">
         <v>38</v>
@@ -13251,7 +13257,7 @@
         <v>185</v>
       </c>
       <c r="C115" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D115" s="26">
         <v>40</v>
@@ -13280,7 +13286,7 @@
         <v>185</v>
       </c>
       <c r="C116" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D116" s="26">
         <v>38</v>
@@ -13309,7 +13315,7 @@
         <v>185</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D117" s="26">
         <v>40.5</v>
@@ -13338,7 +13344,7 @@
         <v>185</v>
       </c>
       <c r="C118" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D118" s="26">
         <v>38</v>
@@ -13367,7 +13373,7 @@
         <v>185</v>
       </c>
       <c r="C119" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D119" s="26">
         <v>40.5</v>
@@ -13396,7 +13402,7 @@
         <v>185</v>
       </c>
       <c r="C120" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D120" s="26">
         <v>38</v>
@@ -13425,7 +13431,7 @@
         <v>185</v>
       </c>
       <c r="C121" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D121" s="26">
         <v>40.5</v>
@@ -13454,7 +13460,7 @@
         <v>185</v>
       </c>
       <c r="C122" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D122" s="26">
         <v>38</v>
@@ -13481,7 +13487,7 @@
         <v>185</v>
       </c>
       <c r="C123" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D123" s="26">
         <v>53</v>
@@ -13508,7 +13514,7 @@
         <v>185</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D124" s="26">
         <v>38</v>
@@ -13535,7 +13541,7 @@
         <v>185</v>
       </c>
       <c r="C125" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D125" s="26">
         <v>53</v>
@@ -13562,7 +13568,7 @@
         <v>185</v>
       </c>
       <c r="C126" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D126" s="26">
         <v>38</v>
@@ -13589,7 +13595,7 @@
         <v>185</v>
       </c>
       <c r="C127" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D127" s="26">
         <v>53</v>
@@ -13616,7 +13622,7 @@
         <v>185</v>
       </c>
       <c r="C128" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D128" s="26">
         <v>38</v>
@@ -13643,7 +13649,7 @@
         <v>185</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D129" s="26">
         <v>53</v>
@@ -13670,7 +13676,7 @@
         <v>185</v>
       </c>
       <c r="C130" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D130" s="26">
         <v>38</v>
@@ -13697,7 +13703,7 @@
         <v>185</v>
       </c>
       <c r="C131" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D131" s="26">
         <v>53</v>
@@ -13724,7 +13730,7 @@
         <v>185</v>
       </c>
       <c r="C132" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D132" s="26">
         <v>38</v>
@@ -13751,7 +13757,7 @@
         <v>185</v>
       </c>
       <c r="C133" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D133" s="26">
         <v>53.5</v>
@@ -13778,7 +13784,7 @@
         <v>185</v>
       </c>
       <c r="C134" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D134" s="26">
         <v>38</v>
@@ -13807,7 +13813,7 @@
         <v>185</v>
       </c>
       <c r="C135" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D135" s="26">
         <v>49</v>
@@ -13836,7 +13842,7 @@
         <v>185</v>
       </c>
       <c r="C136" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D136" s="26">
         <v>38</v>
@@ -13865,7 +13871,7 @@
         <v>185</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D137" s="26">
         <v>49.5</v>
@@ -13894,7 +13900,7 @@
         <v>185</v>
       </c>
       <c r="C138" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D138" s="26">
         <v>38</v>
@@ -13923,7 +13929,7 @@
         <v>185</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D139" s="26">
         <v>49.5</v>
@@ -13952,7 +13958,7 @@
         <v>185</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D140" s="26">
         <v>38</v>
@@ -13981,7 +13987,7 @@
         <v>185</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D141" s="26">
         <v>49</v>
@@ -14010,7 +14016,7 @@
         <v>185</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D142" s="26">
         <v>38</v>
@@ -14039,7 +14045,7 @@
         <v>185</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D143" s="26">
         <v>49.5</v>
@@ -14068,7 +14074,7 @@
         <v>185</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D144" s="26">
         <v>38</v>
@@ -14097,7 +14103,7 @@
         <v>185</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D145" s="26">
         <v>49</v>
@@ -14126,7 +14132,7 @@
         <v>185</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D146" s="26">
         <v>38</v>
@@ -14155,7 +14161,7 @@
         <v>185</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D147" s="26">
         <v>46</v>
@@ -14184,7 +14190,7 @@
         <v>185</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D148" s="26">
         <v>38</v>
@@ -14213,7 +14219,7 @@
         <v>185</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D149" s="26">
         <v>46.5</v>
@@ -14242,7 +14248,7 @@
         <v>185</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D150" s="26">
         <v>38</v>
@@ -14271,7 +14277,7 @@
         <v>185</v>
       </c>
       <c r="C151" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D151" s="26">
         <v>46</v>
@@ -14300,7 +14306,7 @@
         <v>185</v>
       </c>
       <c r="C152" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D152" s="26">
         <v>38</v>
@@ -14329,7 +14335,7 @@
         <v>185</v>
       </c>
       <c r="C153" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D153" s="26">
         <v>46.5</v>
@@ -14358,7 +14364,7 @@
         <v>185</v>
       </c>
       <c r="C154" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D154" s="26">
         <v>38</v>
@@ -14387,7 +14393,7 @@
         <v>185</v>
       </c>
       <c r="C155" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D155" s="26">
         <v>46.5</v>
@@ -14416,7 +14422,7 @@
         <v>185</v>
       </c>
       <c r="C156" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D156" s="26">
         <v>38</v>
@@ -14445,7 +14451,7 @@
         <v>185</v>
       </c>
       <c r="C157" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D157" s="26">
         <v>46.6</v>
@@ -14474,7 +14480,7 @@
         <v>185</v>
       </c>
       <c r="C158" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D158" s="26">
         <v>38</v>
@@ -14503,7 +14509,7 @@
         <v>185</v>
       </c>
       <c r="C159" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D159" s="26">
         <v>45</v>
@@ -14532,7 +14538,7 @@
         <v>185</v>
       </c>
       <c r="C160" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D160" s="26">
         <v>38</v>
@@ -14561,7 +14567,7 @@
         <v>185</v>
       </c>
       <c r="C161" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D161" s="26">
         <v>45</v>
@@ -14590,7 +14596,7 @@
         <v>185</v>
       </c>
       <c r="C162" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D162" s="26">
         <v>38</v>
@@ -14619,7 +14625,7 @@
         <v>185</v>
       </c>
       <c r="C163" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D163" s="26">
         <v>45</v>
@@ -14648,7 +14654,7 @@
         <v>185</v>
       </c>
       <c r="C164" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D164" s="26">
         <v>38</v>
@@ -14677,7 +14683,7 @@
         <v>185</v>
       </c>
       <c r="C165" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D165" s="26">
         <v>45</v>
@@ -14706,7 +14712,7 @@
         <v>185</v>
       </c>
       <c r="C166" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D166" s="26">
         <v>38</v>
@@ -14735,7 +14741,7 @@
         <v>185</v>
       </c>
       <c r="C167" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D167" s="26">
         <v>45</v>
@@ -14764,7 +14770,7 @@
         <v>185</v>
       </c>
       <c r="C168" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D168" s="26">
         <v>38</v>
@@ -14793,7 +14799,7 @@
         <v>185</v>
       </c>
       <c r="C169" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D169" s="26">
         <v>45</v>
@@ -14822,7 +14828,7 @@
         <v>185</v>
       </c>
       <c r="C170" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D170" s="26">
         <v>38</v>
@@ -14851,7 +14857,7 @@
         <v>185</v>
       </c>
       <c r="C171" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D171" s="26">
         <v>44</v>
@@ -14880,7 +14886,7 @@
         <v>185</v>
       </c>
       <c r="C172" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D172" s="26">
         <v>38</v>
@@ -14909,7 +14915,7 @@
         <v>185</v>
       </c>
       <c r="C173" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D173" s="26">
         <v>44</v>
@@ -14938,7 +14944,7 @@
         <v>185</v>
       </c>
       <c r="C174" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D174" s="26">
         <v>38</v>
@@ -14967,7 +14973,7 @@
         <v>185</v>
       </c>
       <c r="C175" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D175" s="26">
         <v>44</v>
@@ -14996,7 +15002,7 @@
         <v>185</v>
       </c>
       <c r="C176" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D176" s="26">
         <v>38</v>
@@ -15025,7 +15031,7 @@
         <v>185</v>
       </c>
       <c r="C177" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D177" s="26">
         <v>44</v>
@@ -15054,7 +15060,7 @@
         <v>185</v>
       </c>
       <c r="C178" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D178" s="26">
         <v>38</v>
@@ -15083,7 +15089,7 @@
         <v>185</v>
       </c>
       <c r="C179" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D179" s="26">
         <v>44</v>
@@ -15112,7 +15118,7 @@
         <v>185</v>
       </c>
       <c r="C180" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D180" s="26">
         <v>38</v>
@@ -15141,7 +15147,7 @@
         <v>185</v>
       </c>
       <c r="C181" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D181" s="26">
         <v>44</v>
@@ -15170,7 +15176,7 @@
         <v>185</v>
       </c>
       <c r="C182" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D182" s="26">
         <v>38</v>
@@ -15199,7 +15205,7 @@
         <v>185</v>
       </c>
       <c r="C183" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D183" s="26">
         <v>43</v>
@@ -15228,7 +15234,7 @@
         <v>185</v>
       </c>
       <c r="C184" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D184" s="26">
         <v>38</v>
@@ -15257,7 +15263,7 @@
         <v>185</v>
       </c>
       <c r="C185" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D185" s="26">
         <v>43</v>
@@ -15286,7 +15292,7 @@
         <v>185</v>
       </c>
       <c r="C186" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D186" s="26">
         <v>38</v>
@@ -15315,7 +15321,7 @@
         <v>185</v>
       </c>
       <c r="C187" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D187" s="26">
         <v>43</v>
@@ -15344,7 +15350,7 @@
         <v>185</v>
       </c>
       <c r="C188" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D188" s="26">
         <v>38</v>
@@ -15373,7 +15379,7 @@
         <v>185</v>
       </c>
       <c r="C189" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D189" s="26">
         <v>43</v>
@@ -15402,7 +15408,7 @@
         <v>185</v>
       </c>
       <c r="C190" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D190" s="26">
         <v>38</v>
@@ -15431,7 +15437,7 @@
         <v>185</v>
       </c>
       <c r="C191" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D191" s="26">
         <v>43</v>
@@ -15460,7 +15466,7 @@
         <v>185</v>
       </c>
       <c r="C192" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D192" s="26">
         <v>38</v>
@@ -15489,7 +15495,7 @@
         <v>185</v>
       </c>
       <c r="C193" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D193" s="26">
         <v>43</v>
@@ -15518,7 +15524,7 @@
         <v>185</v>
       </c>
       <c r="C194" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D194" s="26">
         <v>38</v>
@@ -15547,7 +15553,7 @@
         <v>185</v>
       </c>
       <c r="C195" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D195" s="26">
         <v>42</v>
@@ -15576,7 +15582,7 @@
         <v>185</v>
       </c>
       <c r="C196" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D196" s="26">
         <v>38</v>
@@ -15605,7 +15611,7 @@
         <v>185</v>
       </c>
       <c r="C197" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D197" s="26">
         <v>42</v>
@@ -15634,7 +15640,7 @@
         <v>185</v>
       </c>
       <c r="C198" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D198" s="26">
         <v>38</v>
@@ -15663,7 +15669,7 @@
         <v>185</v>
       </c>
       <c r="C199" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D199" s="26">
         <v>42</v>
@@ -15692,7 +15698,7 @@
         <v>185</v>
       </c>
       <c r="C200" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D200" s="26">
         <v>38</v>
@@ -15721,7 +15727,7 @@
         <v>185</v>
       </c>
       <c r="C201" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D201" s="26">
         <v>42</v>
@@ -15750,7 +15756,7 @@
         <v>185</v>
       </c>
       <c r="C202" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D202" s="26">
         <v>38</v>
@@ -15779,7 +15785,7 @@
         <v>185</v>
       </c>
       <c r="C203" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D203" s="26">
         <v>42</v>
@@ -15808,7 +15814,7 @@
         <v>185</v>
       </c>
       <c r="C204" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D204" s="26">
         <v>38</v>
@@ -15837,7 +15843,7 @@
         <v>185</v>
       </c>
       <c r="C205" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D205" s="26">
         <v>42</v>
@@ -15866,7 +15872,7 @@
         <v>185</v>
       </c>
       <c r="C206" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D206" s="26">
         <v>38</v>
@@ -15895,7 +15901,7 @@
         <v>185</v>
       </c>
       <c r="C207" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D207" s="26">
         <v>41</v>
@@ -15924,7 +15930,7 @@
         <v>185</v>
       </c>
       <c r="C208" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D208" s="26">
         <v>38</v>
@@ -15953,7 +15959,7 @@
         <v>185</v>
       </c>
       <c r="C209" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D209" s="26">
         <v>41</v>
@@ -15982,7 +15988,7 @@
         <v>185</v>
       </c>
       <c r="C210" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D210" s="26">
         <v>38</v>
@@ -16011,7 +16017,7 @@
         <v>185</v>
       </c>
       <c r="C211" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D211" s="26">
         <v>41.5</v>
@@ -16040,7 +16046,7 @@
         <v>185</v>
       </c>
       <c r="C212" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D212" s="26">
         <v>38</v>
@@ -16069,7 +16075,7 @@
         <v>185</v>
       </c>
       <c r="C213" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D213" s="26">
         <v>41</v>
@@ -16098,7 +16104,7 @@
         <v>185</v>
       </c>
       <c r="C214" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D214" s="26">
         <v>38</v>
@@ -16127,7 +16133,7 @@
         <v>185</v>
       </c>
       <c r="C215" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D215" s="26">
         <v>41</v>
@@ -16156,7 +16162,7 @@
         <v>185</v>
       </c>
       <c r="C216" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D216" s="26">
         <v>38</v>
@@ -16185,7 +16191,7 @@
         <v>185</v>
       </c>
       <c r="C217" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D217" s="26">
         <v>41.5</v>
@@ -16214,7 +16220,7 @@
         <v>185</v>
       </c>
       <c r="C218" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D218" s="26">
         <v>38</v>
@@ -16241,7 +16247,7 @@
         <v>185</v>
       </c>
       <c r="C219" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D219" s="26">
         <v>54</v>
@@ -16268,7 +16274,7 @@
         <v>185</v>
       </c>
       <c r="C220" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D220" s="26">
         <v>38</v>
@@ -16295,7 +16301,7 @@
         <v>185</v>
       </c>
       <c r="C221" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D221" s="26">
         <v>54</v>
@@ -16322,7 +16328,7 @@
         <v>185</v>
       </c>
       <c r="C222" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D222" s="26">
         <v>38</v>
@@ -16349,7 +16355,7 @@
         <v>185</v>
       </c>
       <c r="C223" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D223" s="26">
         <v>54</v>
@@ -16376,7 +16382,7 @@
         <v>185</v>
       </c>
       <c r="C224" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D224" s="26">
         <v>38</v>
@@ -16403,7 +16409,7 @@
         <v>185</v>
       </c>
       <c r="C225" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D225" s="26">
         <v>54</v>
@@ -16430,7 +16436,7 @@
         <v>185</v>
       </c>
       <c r="C226" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D226" s="26">
         <v>38</v>
@@ -16457,7 +16463,7 @@
         <v>185</v>
       </c>
       <c r="C227" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D227" s="26">
         <v>54</v>
@@ -16484,7 +16490,7 @@
         <v>185</v>
       </c>
       <c r="C228" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D228" s="26">
         <v>38</v>
@@ -16511,7 +16517,7 @@
         <v>185</v>
       </c>
       <c r="C229" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D229" s="26">
         <v>54</v>
@@ -16538,7 +16544,7 @@
         <v>185</v>
       </c>
       <c r="C230" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D230" s="26">
         <v>38</v>
@@ -16567,7 +16573,7 @@
         <v>185</v>
       </c>
       <c r="C231" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D231" s="26">
         <v>49</v>
@@ -16596,7 +16602,7 @@
         <v>185</v>
       </c>
       <c r="C232" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D232" s="26">
         <v>38</v>
@@ -16625,7 +16631,7 @@
         <v>185</v>
       </c>
       <c r="C233" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D233" s="26">
         <v>49.5</v>
@@ -16654,7 +16660,7 @@
         <v>185</v>
       </c>
       <c r="C234" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D234" s="26">
         <v>38</v>
@@ -16683,7 +16689,7 @@
         <v>185</v>
       </c>
       <c r="C235" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D235" s="26">
         <v>49.5</v>
@@ -16712,7 +16718,7 @@
         <v>185</v>
       </c>
       <c r="C236" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D236" s="26">
         <v>38</v>
@@ -16741,7 +16747,7 @@
         <v>185</v>
       </c>
       <c r="C237" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D237" s="26">
         <v>50</v>
@@ -16770,7 +16776,7 @@
         <v>185</v>
       </c>
       <c r="C238" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D238" s="26">
         <v>38</v>
@@ -16799,7 +16805,7 @@
         <v>185</v>
       </c>
       <c r="C239" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D239" s="26">
         <v>50</v>
@@ -16828,7 +16834,7 @@
         <v>185</v>
       </c>
       <c r="C240" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D240" s="26">
         <v>38</v>
@@ -16857,7 +16863,7 @@
         <v>185</v>
       </c>
       <c r="C241" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D241" s="26">
         <v>49.5</v>
@@ -16886,7 +16892,7 @@
         <v>185</v>
       </c>
       <c r="C242" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D242" s="26">
         <v>38</v>
@@ -16915,7 +16921,7 @@
         <v>185</v>
       </c>
       <c r="C243" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D243" s="26">
         <v>47</v>
@@ -16944,7 +16950,7 @@
         <v>185</v>
       </c>
       <c r="C244" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D244" s="26">
         <v>38</v>
@@ -16973,7 +16979,7 @@
         <v>185</v>
       </c>
       <c r="C245" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D245" s="26">
         <v>47</v>
@@ -17002,7 +17008,7 @@
         <v>185</v>
       </c>
       <c r="C246" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D246" s="26">
         <v>38</v>
@@ -17031,7 +17037,7 @@
         <v>185</v>
       </c>
       <c r="C247" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D247" s="26">
         <v>47.5</v>
@@ -17060,7 +17066,7 @@
         <v>185</v>
       </c>
       <c r="C248" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D248" s="26">
         <v>38</v>
@@ -17089,7 +17095,7 @@
         <v>185</v>
       </c>
       <c r="C249" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D249" s="26">
         <v>47</v>
@@ -17118,7 +17124,7 @@
         <v>185</v>
       </c>
       <c r="C250" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D250" s="26">
         <v>38</v>
@@ -17147,7 +17153,7 @@
         <v>185</v>
       </c>
       <c r="C251" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D251" s="26">
         <v>47</v>
@@ -17176,7 +17182,7 @@
         <v>185</v>
       </c>
       <c r="C252" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D252" s="26">
         <v>38</v>
@@ -17205,7 +17211,7 @@
         <v>185</v>
       </c>
       <c r="C253" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D253" s="26">
         <v>47.5</v>
@@ -17234,7 +17240,7 @@
         <v>185</v>
       </c>
       <c r="C254" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D254" s="26">
         <v>38</v>
@@ -17263,7 +17269,7 @@
         <v>185</v>
       </c>
       <c r="C255" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D255" s="26">
         <v>45.5</v>
@@ -17292,7 +17298,7 @@
         <v>185</v>
       </c>
       <c r="C256" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D256" s="26">
         <v>38</v>
@@ -17321,7 +17327,7 @@
         <v>185</v>
       </c>
       <c r="C257" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D257" s="26">
         <v>45</v>
@@ -17350,7 +17356,7 @@
         <v>185</v>
       </c>
       <c r="C258" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D258" s="26">
         <v>38</v>
@@ -17379,7 +17385,7 @@
         <v>185</v>
       </c>
       <c r="C259" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D259" s="26">
         <v>45.5</v>
@@ -17408,7 +17414,7 @@
         <v>185</v>
       </c>
       <c r="C260" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D260" s="26">
         <v>38</v>
@@ -17437,7 +17443,7 @@
         <v>185</v>
       </c>
       <c r="C261" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D261" s="26">
         <v>45</v>
@@ -17466,7 +17472,7 @@
         <v>185</v>
       </c>
       <c r="C262" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D262" s="26">
         <v>38</v>
@@ -17495,7 +17501,7 @@
         <v>185</v>
       </c>
       <c r="C263" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D263" s="26">
         <v>45.5</v>
@@ -17524,7 +17530,7 @@
         <v>185</v>
       </c>
       <c r="C264" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D264" s="26">
         <v>38</v>
@@ -17553,7 +17559,7 @@
         <v>185</v>
       </c>
       <c r="C265" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D265" s="26">
         <v>45.5</v>
@@ -17582,7 +17588,7 @@
         <v>185</v>
       </c>
       <c r="C266" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D266" s="26">
         <v>38</v>
@@ -17611,7 +17617,7 @@
         <v>185</v>
       </c>
       <c r="C267" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D267" s="26">
         <v>44</v>
@@ -17640,7 +17646,7 @@
         <v>185</v>
       </c>
       <c r="C268" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D268" s="26">
         <v>38</v>
@@ -17669,7 +17675,7 @@
         <v>185</v>
       </c>
       <c r="C269" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D269" s="26">
         <v>44</v>
@@ -17698,7 +17704,7 @@
         <v>185</v>
       </c>
       <c r="C270" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D270" s="26">
         <v>38</v>
@@ -17727,7 +17733,7 @@
         <v>185</v>
       </c>
       <c r="C271" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D271" s="26">
         <v>44</v>
@@ -17756,7 +17762,7 @@
         <v>185</v>
       </c>
       <c r="C272" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D272" s="26">
         <v>38</v>
@@ -17785,7 +17791,7 @@
         <v>185</v>
       </c>
       <c r="C273" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D273" s="26">
         <v>43.5</v>
@@ -17814,7 +17820,7 @@
         <v>185</v>
       </c>
       <c r="C274" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D274" s="26">
         <v>38</v>
@@ -17843,7 +17849,7 @@
         <v>185</v>
       </c>
       <c r="C275" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D275" s="26">
         <v>44</v>
@@ -17872,7 +17878,7 @@
         <v>185</v>
       </c>
       <c r="C276" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D276" s="26">
         <v>38</v>
@@ -17901,7 +17907,7 @@
         <v>185</v>
       </c>
       <c r="C277" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D277" s="26">
         <v>43.5</v>
@@ -17930,7 +17936,7 @@
         <v>185</v>
       </c>
       <c r="C278" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D278" s="26">
         <v>38</v>
@@ -17959,7 +17965,7 @@
         <v>185</v>
       </c>
       <c r="C279" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D279" s="26">
         <v>42</v>
@@ -17988,7 +17994,7 @@
         <v>185</v>
       </c>
       <c r="C280" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D280" s="26">
         <v>38</v>
@@ -18017,7 +18023,7 @@
         <v>185</v>
       </c>
       <c r="C281" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D281" s="26">
         <v>42.5</v>
@@ -18046,7 +18052,7 @@
         <v>185</v>
       </c>
       <c r="C282" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D282" s="26">
         <v>38</v>
@@ -18075,7 +18081,7 @@
         <v>185</v>
       </c>
       <c r="C283" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D283" s="26">
         <v>42</v>
@@ -18104,7 +18110,7 @@
         <v>185</v>
       </c>
       <c r="C284" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D284" s="26">
         <v>38</v>
@@ -18133,7 +18139,7 @@
         <v>185</v>
       </c>
       <c r="C285" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D285" s="26">
         <v>42.5</v>
@@ -18162,7 +18168,7 @@
         <v>185</v>
       </c>
       <c r="C286" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D286" s="26">
         <v>38</v>
@@ -18191,7 +18197,7 @@
         <v>185</v>
       </c>
       <c r="C287" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D287" s="26">
         <v>42.5</v>
@@ -18220,7 +18226,7 @@
         <v>185</v>
       </c>
       <c r="C288" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D288" s="26">
         <v>38</v>
@@ -18249,7 +18255,7 @@
         <v>185</v>
       </c>
       <c r="C289" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D289" s="26">
         <v>42</v>
@@ -18278,7 +18284,7 @@
         <v>185</v>
       </c>
       <c r="C290" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D290" s="26">
         <v>38</v>
@@ -18307,7 +18313,7 @@
         <v>185</v>
       </c>
       <c r="C291" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D291" s="26">
         <v>41.5</v>
@@ -18336,7 +18342,7 @@
         <v>185</v>
       </c>
       <c r="C292" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D292" s="26">
         <v>38</v>
@@ -18365,7 +18371,7 @@
         <v>185</v>
       </c>
       <c r="C293" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D293" s="26">
         <v>42</v>
@@ -18394,7 +18400,7 @@
         <v>185</v>
       </c>
       <c r="C294" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D294" s="26">
         <v>38</v>
@@ -18423,7 +18429,7 @@
         <v>185</v>
       </c>
       <c r="C295" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D295" s="26">
         <v>41.5</v>
@@ -18452,7 +18458,7 @@
         <v>185</v>
       </c>
       <c r="C296" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D296" s="26">
         <v>38</v>
@@ -18481,7 +18487,7 @@
         <v>185</v>
       </c>
       <c r="C297" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D297" s="26">
         <v>42</v>
@@ -18510,7 +18516,7 @@
         <v>185</v>
       </c>
       <c r="C298" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D298" s="26">
         <v>38</v>
@@ -18539,7 +18545,7 @@
         <v>185</v>
       </c>
       <c r="C299" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D299" s="26">
         <v>42</v>
@@ -18568,7 +18574,7 @@
         <v>185</v>
       </c>
       <c r="C300" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D300" s="26">
         <v>38</v>
@@ -18597,7 +18603,7 @@
         <v>185</v>
       </c>
       <c r="C301" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D301" s="26">
         <v>41.5</v>
@@ -18626,7 +18632,7 @@
         <v>185</v>
       </c>
       <c r="C302" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D302" s="26">
         <v>38</v>
@@ -18655,7 +18661,7 @@
         <v>185</v>
       </c>
       <c r="C303" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D303" s="26">
         <v>41</v>
@@ -18684,7 +18690,7 @@
         <v>185</v>
       </c>
       <c r="C304" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D304" s="26">
         <v>38</v>
@@ -18713,7 +18719,7 @@
         <v>185</v>
       </c>
       <c r="C305" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D305" s="26">
         <v>41</v>
@@ -18742,7 +18748,7 @@
         <v>185</v>
       </c>
       <c r="C306" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D306" s="26">
         <v>38</v>
@@ -18771,7 +18777,7 @@
         <v>185</v>
       </c>
       <c r="C307" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D307" s="26">
         <v>41</v>
@@ -18800,7 +18806,7 @@
         <v>185</v>
       </c>
       <c r="C308" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D308" s="26">
         <v>38</v>
@@ -18829,7 +18835,7 @@
         <v>185</v>
       </c>
       <c r="C309" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D309" s="26">
         <v>41</v>
@@ -18858,7 +18864,7 @@
         <v>185</v>
       </c>
       <c r="C310" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D310" s="26">
         <v>38</v>
@@ -18887,7 +18893,7 @@
         <v>185</v>
       </c>
       <c r="C311" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D311" s="26">
         <v>41</v>
@@ -18916,7 +18922,7 @@
         <v>185</v>
       </c>
       <c r="C312" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D312" s="26">
         <v>38</v>
@@ -18945,7 +18951,7 @@
         <v>185</v>
       </c>
       <c r="C313" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D313" s="26">
         <v>41</v>
@@ -18974,7 +18980,7 @@
         <v>185</v>
       </c>
       <c r="C314" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D314" s="26">
         <v>38</v>
@@ -19001,7 +19007,7 @@
         <v>185</v>
       </c>
       <c r="C315" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D315" s="26">
         <v>53</v>
@@ -19028,7 +19034,7 @@
         <v>185</v>
       </c>
       <c r="C316" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D316" s="26">
         <v>38</v>
@@ -19055,7 +19061,7 @@
         <v>185</v>
       </c>
       <c r="C317" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D317" s="26">
         <v>53</v>
@@ -19082,7 +19088,7 @@
         <v>185</v>
       </c>
       <c r="C318" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D318" s="26">
         <v>38</v>
@@ -19109,7 +19115,7 @@
         <v>185</v>
       </c>
       <c r="C319" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D319" s="26">
         <v>53</v>
@@ -19136,7 +19142,7 @@
         <v>185</v>
       </c>
       <c r="C320" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D320" s="26">
         <v>38</v>
@@ -19163,7 +19169,7 @@
         <v>185</v>
       </c>
       <c r="C321" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D321" s="26">
         <v>53</v>
@@ -19190,7 +19196,7 @@
         <v>185</v>
       </c>
       <c r="C322" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D322" s="26">
         <v>38</v>
@@ -19217,7 +19223,7 @@
         <v>185</v>
       </c>
       <c r="C323" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D323" s="26">
         <v>53</v>
@@ -19244,7 +19250,7 @@
         <v>185</v>
       </c>
       <c r="C324" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D324" s="26">
         <v>38</v>
@@ -19271,7 +19277,7 @@
         <v>185</v>
       </c>
       <c r="C325" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D325" s="26">
         <v>53</v>
@@ -19298,7 +19304,7 @@
         <v>185</v>
       </c>
       <c r="C326" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D326" s="26">
         <v>38</v>
@@ -19327,7 +19333,7 @@
         <v>185</v>
       </c>
       <c r="C327" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D327" s="26">
         <v>49</v>
@@ -19356,7 +19362,7 @@
         <v>185</v>
       </c>
       <c r="C328" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D328" s="26">
         <v>38</v>
@@ -19385,7 +19391,7 @@
         <v>185</v>
       </c>
       <c r="C329" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D329" s="26">
         <v>49.5</v>
@@ -19414,7 +19420,7 @@
         <v>185</v>
       </c>
       <c r="C330" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D330" s="26">
         <v>38</v>
@@ -19443,7 +19449,7 @@
         <v>185</v>
       </c>
       <c r="C331" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D331" s="26">
         <v>49</v>
@@ -19472,7 +19478,7 @@
         <v>185</v>
       </c>
       <c r="C332" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D332" s="26">
         <v>38</v>
@@ -19501,7 +19507,7 @@
         <v>185</v>
       </c>
       <c r="C333" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D333" s="26">
         <v>49</v>
@@ -19530,7 +19536,7 @@
         <v>185</v>
       </c>
       <c r="C334" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D334" s="26">
         <v>38</v>
@@ -19559,7 +19565,7 @@
         <v>185</v>
       </c>
       <c r="C335" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D335" s="26">
         <v>49</v>
@@ -19588,7 +19594,7 @@
         <v>185</v>
       </c>
       <c r="C336" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D336" s="26">
         <v>38</v>
@@ -19617,7 +19623,7 @@
         <v>185</v>
       </c>
       <c r="C337" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D337" s="26">
         <v>49.5</v>
@@ -19646,7 +19652,7 @@
         <v>185</v>
       </c>
       <c r="C338" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D338" s="26">
         <v>38</v>
@@ -19675,7 +19681,7 @@
         <v>185</v>
       </c>
       <c r="C339" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D339" s="26">
         <v>47</v>
@@ -19704,7 +19710,7 @@
         <v>185</v>
       </c>
       <c r="C340" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D340" s="26">
         <v>38</v>
@@ -19733,7 +19739,7 @@
         <v>185</v>
       </c>
       <c r="C341" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D341" s="26">
         <v>47</v>
@@ -19762,7 +19768,7 @@
         <v>185</v>
       </c>
       <c r="C342" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D342" s="26">
         <v>38</v>
@@ -19791,7 +19797,7 @@
         <v>185</v>
       </c>
       <c r="C343" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D343" s="26">
         <v>47</v>
@@ -19820,7 +19826,7 @@
         <v>185</v>
       </c>
       <c r="C344" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D344" s="26">
         <v>38</v>
@@ -19849,7 +19855,7 @@
         <v>185</v>
       </c>
       <c r="C345" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D345" s="26">
         <v>47</v>
@@ -19878,7 +19884,7 @@
         <v>185</v>
       </c>
       <c r="C346" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D346" s="26">
         <v>38</v>
@@ -19907,7 +19913,7 @@
         <v>185</v>
       </c>
       <c r="C347" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D347" s="26">
         <v>47</v>
@@ -19936,7 +19942,7 @@
         <v>185</v>
       </c>
       <c r="C348" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D348" s="26">
         <v>38</v>
@@ -19965,7 +19971,7 @@
         <v>185</v>
       </c>
       <c r="C349" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D349" s="26">
         <v>47</v>
@@ -19994,7 +20000,7 @@
         <v>185</v>
       </c>
       <c r="C350" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D350" s="26">
         <v>38</v>
@@ -20023,7 +20029,7 @@
         <v>185</v>
       </c>
       <c r="C351" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D351" s="26">
         <v>45.5</v>
@@ -20052,7 +20058,7 @@
         <v>185</v>
       </c>
       <c r="C352" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D352" s="26">
         <v>38</v>
@@ -20081,7 +20087,7 @@
         <v>185</v>
       </c>
       <c r="C353" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D353" s="26">
         <v>45.5</v>
@@ -20110,7 +20116,7 @@
         <v>185</v>
       </c>
       <c r="C354" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D354" s="26">
         <v>38</v>
@@ -20139,7 +20145,7 @@
         <v>185</v>
       </c>
       <c r="C355" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D355" s="26">
         <v>45</v>
@@ -20168,7 +20174,7 @@
         <v>185</v>
       </c>
       <c r="C356" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D356" s="26">
         <v>38</v>
@@ -20197,7 +20203,7 @@
         <v>185</v>
       </c>
       <c r="C357" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D357" s="26">
         <v>45.5</v>
@@ -20226,7 +20232,7 @@
         <v>185</v>
       </c>
       <c r="C358" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D358" s="26">
         <v>38</v>
@@ -20255,7 +20261,7 @@
         <v>185</v>
       </c>
       <c r="C359" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D359" s="26">
         <v>45.5</v>
@@ -20284,7 +20290,7 @@
         <v>185</v>
       </c>
       <c r="C360" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D360" s="26">
         <v>38</v>
@@ -20313,7 +20319,7 @@
         <v>185</v>
       </c>
       <c r="C361" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D361" s="26">
         <v>45.5</v>
@@ -20342,7 +20348,7 @@
         <v>185</v>
       </c>
       <c r="C362" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D362" s="26">
         <v>38</v>
@@ -20371,7 +20377,7 @@
         <v>185</v>
       </c>
       <c r="C363" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D363" s="26">
         <v>44</v>
@@ -20400,7 +20406,7 @@
         <v>185</v>
       </c>
       <c r="C364" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D364" s="26">
         <v>38</v>
@@ -20429,7 +20435,7 @@
         <v>185</v>
       </c>
       <c r="C365" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D365" s="26">
         <v>44</v>
@@ -20458,7 +20464,7 @@
         <v>185</v>
       </c>
       <c r="C366" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D366" s="26">
         <v>38</v>
@@ -20487,7 +20493,7 @@
         <v>185</v>
       </c>
       <c r="C367" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D367" s="26">
         <v>44</v>
@@ -20516,7 +20522,7 @@
         <v>185</v>
       </c>
       <c r="C368" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D368" s="26">
         <v>38</v>
@@ -20545,7 +20551,7 @@
         <v>185</v>
       </c>
       <c r="C369" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D369" s="26">
         <v>44</v>
@@ -20574,7 +20580,7 @@
         <v>185</v>
       </c>
       <c r="C370" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D370" s="26">
         <v>38</v>
@@ -20603,7 +20609,7 @@
         <v>185</v>
       </c>
       <c r="C371" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D371" s="26">
         <v>44.5</v>
@@ -20632,7 +20638,7 @@
         <v>185</v>
       </c>
       <c r="C372" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D372" s="26">
         <v>38</v>
@@ -20661,7 +20667,7 @@
         <v>185</v>
       </c>
       <c r="C373" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D373" s="26">
         <v>44</v>
@@ -20690,7 +20696,7 @@
         <v>185</v>
       </c>
       <c r="C374" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D374" s="26">
         <v>38</v>
@@ -20719,7 +20725,7 @@
         <v>185</v>
       </c>
       <c r="C375" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D375" s="26">
         <v>43</v>
@@ -20748,7 +20754,7 @@
         <v>185</v>
       </c>
       <c r="C376" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D376" s="26">
         <v>38</v>
@@ -20777,7 +20783,7 @@
         <v>185</v>
       </c>
       <c r="C377" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D377" s="26">
         <v>43</v>
@@ -20806,7 +20812,7 @@
         <v>185</v>
       </c>
       <c r="C378" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D378" s="26">
         <v>38</v>
@@ -20835,7 +20841,7 @@
         <v>185</v>
       </c>
       <c r="C379" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D379" s="26">
         <v>43.5</v>
@@ -20864,7 +20870,7 @@
         <v>185</v>
       </c>
       <c r="C380" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D380" s="26">
         <v>38</v>
@@ -20893,7 +20899,7 @@
         <v>185</v>
       </c>
       <c r="C381" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D381" s="26">
         <v>43.5</v>
@@ -20922,7 +20928,7 @@
         <v>185</v>
       </c>
       <c r="C382" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D382" s="26">
         <v>38</v>
@@ -20951,7 +20957,7 @@
         <v>185</v>
       </c>
       <c r="C383" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D383" s="26">
         <v>43</v>
@@ -20980,7 +20986,7 @@
         <v>185</v>
       </c>
       <c r="C384" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D384" s="26">
         <v>38</v>
@@ -21009,7 +21015,7 @@
         <v>185</v>
       </c>
       <c r="C385" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D385" s="26">
         <v>43</v>
@@ -21038,7 +21044,7 @@
         <v>185</v>
       </c>
       <c r="C386" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D386" s="26">
         <v>38</v>
@@ -21067,7 +21073,7 @@
         <v>185</v>
       </c>
       <c r="C387" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D387" s="26">
         <v>42</v>
@@ -21096,7 +21102,7 @@
         <v>185</v>
       </c>
       <c r="C388" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D388" s="26">
         <v>38</v>
@@ -21125,7 +21131,7 @@
         <v>185</v>
       </c>
       <c r="C389" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D389" s="26">
         <v>42</v>
@@ -21154,7 +21160,7 @@
         <v>185</v>
       </c>
       <c r="C390" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D390" s="26">
         <v>38</v>
@@ -21183,7 +21189,7 @@
         <v>185</v>
       </c>
       <c r="C391" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D391" s="26">
         <v>42</v>
@@ -21212,7 +21218,7 @@
         <v>185</v>
       </c>
       <c r="C392" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D392" s="26">
         <v>38</v>
@@ -21241,7 +21247,7 @@
         <v>185</v>
       </c>
       <c r="C393" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D393" s="26">
         <v>42</v>
@@ -21270,7 +21276,7 @@
         <v>185</v>
       </c>
       <c r="C394" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D394" s="26">
         <v>38</v>
@@ -21299,7 +21305,7 @@
         <v>185</v>
       </c>
       <c r="C395" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D395" s="26">
         <v>42</v>
@@ -21328,7 +21334,7 @@
         <v>185</v>
       </c>
       <c r="C396" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D396" s="26">
         <v>38</v>
@@ -21357,7 +21363,7 @@
         <v>185</v>
       </c>
       <c r="C397" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D397" s="26">
         <v>42</v>
@@ -21386,7 +21392,7 @@
         <v>185</v>
       </c>
       <c r="C398" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D398" s="26">
         <v>38</v>
@@ -21415,7 +21421,7 @@
         <v>185</v>
       </c>
       <c r="C399" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D399" s="26">
         <v>41.5</v>
@@ -21444,7 +21450,7 @@
         <v>185</v>
       </c>
       <c r="C400" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D400" s="26">
         <v>38</v>
@@ -21473,7 +21479,7 @@
         <v>185</v>
       </c>
       <c r="C401" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D401" s="26">
         <v>41</v>
@@ -21502,7 +21508,7 @@
         <v>185</v>
       </c>
       <c r="C402" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D402" s="26">
         <v>38</v>
@@ -21531,7 +21537,7 @@
         <v>185</v>
       </c>
       <c r="C403" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D403" s="26">
         <v>41</v>
@@ -21560,7 +21566,7 @@
         <v>185</v>
       </c>
       <c r="C404" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D404" s="26">
         <v>38</v>
@@ -21589,7 +21595,7 @@
         <v>185</v>
       </c>
       <c r="C405" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D405" s="26">
         <v>41</v>
@@ -21618,7 +21624,7 @@
         <v>185</v>
       </c>
       <c r="C406" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D406" s="26">
         <v>38</v>
@@ -21647,7 +21653,7 @@
         <v>185</v>
       </c>
       <c r="C407" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D407" s="26">
         <v>41</v>
@@ -21676,7 +21682,7 @@
         <v>185</v>
       </c>
       <c r="C408" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D408" s="26">
         <v>38</v>
@@ -21705,7 +21711,7 @@
         <v>185</v>
       </c>
       <c r="C409" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D409" s="26">
         <v>41.5</v>
@@ -21734,7 +21740,7 @@
         <v>185</v>
       </c>
       <c r="C410" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D410" s="26">
         <v>38</v>
@@ -21761,7 +21767,7 @@
         <v>185</v>
       </c>
       <c r="C411" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D411" s="26">
         <v>54</v>
@@ -21788,7 +21794,7 @@
         <v>185</v>
       </c>
       <c r="C412" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D412" s="26">
         <v>38</v>
@@ -21815,7 +21821,7 @@
         <v>185</v>
       </c>
       <c r="C413" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D413" s="26">
         <v>54</v>
@@ -21842,7 +21848,7 @@
         <v>185</v>
       </c>
       <c r="C414" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D414" s="26">
         <v>38</v>
@@ -21869,7 +21875,7 @@
         <v>185</v>
       </c>
       <c r="C415" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D415" s="26">
         <v>54</v>
@@ -21896,7 +21902,7 @@
         <v>185</v>
       </c>
       <c r="C416" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D416" s="26">
         <v>38</v>
@@ -21923,7 +21929,7 @@
         <v>185</v>
       </c>
       <c r="C417" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D417" s="26">
         <v>54</v>
@@ -21950,7 +21956,7 @@
         <v>185</v>
       </c>
       <c r="C418" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D418" s="26">
         <v>38</v>
@@ -21977,7 +21983,7 @@
         <v>185</v>
       </c>
       <c r="C419" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D419" s="26">
         <v>54</v>
@@ -22004,7 +22010,7 @@
         <v>185</v>
       </c>
       <c r="C420" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D420" s="26">
         <v>38</v>
@@ -22031,7 +22037,7 @@
         <v>185</v>
       </c>
       <c r="C421" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D421" s="26">
         <v>54</v>
@@ -22058,7 +22064,7 @@
         <v>185</v>
       </c>
       <c r="C422" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D422" s="26">
         <v>38</v>
@@ -22087,7 +22093,7 @@
         <v>185</v>
       </c>
       <c r="C423" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D423" s="26">
         <v>50</v>
@@ -22116,7 +22122,7 @@
         <v>185</v>
       </c>
       <c r="C424" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D424" s="26">
         <v>38</v>
@@ -22145,7 +22151,7 @@
         <v>185</v>
       </c>
       <c r="C425" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D425" s="26">
         <v>50</v>
@@ -22174,7 +22180,7 @@
         <v>185</v>
       </c>
       <c r="C426" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D426" s="26">
         <v>38</v>
@@ -22203,7 +22209,7 @@
         <v>185</v>
       </c>
       <c r="C427" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D427" s="26">
         <v>50</v>
@@ -22232,7 +22238,7 @@
         <v>185</v>
       </c>
       <c r="C428" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D428" s="26">
         <v>38</v>
@@ -22261,7 +22267,7 @@
         <v>185</v>
       </c>
       <c r="C429" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D429" s="26">
         <v>50</v>
@@ -22290,7 +22296,7 @@
         <v>185</v>
       </c>
       <c r="C430" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D430" s="26">
         <v>38</v>
@@ -22319,7 +22325,7 @@
         <v>185</v>
       </c>
       <c r="C431" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D431" s="26">
         <v>50</v>
@@ -22348,7 +22354,7 @@
         <v>185</v>
       </c>
       <c r="C432" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D432" s="26">
         <v>38</v>
@@ -22377,7 +22383,7 @@
         <v>185</v>
       </c>
       <c r="C433" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D433" s="26">
         <v>50</v>
@@ -22406,7 +22412,7 @@
         <v>185</v>
       </c>
       <c r="C434" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D434" s="26">
         <v>38</v>
@@ -22435,7 +22441,7 @@
         <v>185</v>
       </c>
       <c r="C435" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D435" s="26">
         <v>47.5</v>
@@ -22464,7 +22470,7 @@
         <v>185</v>
       </c>
       <c r="C436" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D436" s="26">
         <v>38</v>
@@ -22493,7 +22499,7 @@
         <v>185</v>
       </c>
       <c r="C437" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D437" s="26">
         <v>48</v>
@@ -22522,7 +22528,7 @@
         <v>185</v>
       </c>
       <c r="C438" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D438" s="26">
         <v>38</v>
@@ -22551,7 +22557,7 @@
         <v>185</v>
       </c>
       <c r="C439" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D439" s="26">
         <v>47.5</v>
@@ -22580,7 +22586,7 @@
         <v>185</v>
       </c>
       <c r="C440" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D440" s="26">
         <v>38</v>
@@ -22609,7 +22615,7 @@
         <v>185</v>
       </c>
       <c r="C441" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D441" s="26">
         <v>47.5</v>
@@ -22638,7 +22644,7 @@
         <v>185</v>
       </c>
       <c r="C442" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D442" s="26">
         <v>38</v>
@@ -22667,7 +22673,7 @@
         <v>185</v>
       </c>
       <c r="C443" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D443" s="26">
         <v>47.5</v>
@@ -22696,7 +22702,7 @@
         <v>185</v>
       </c>
       <c r="C444" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D444" s="26">
         <v>38</v>
@@ -22725,7 +22731,7 @@
         <v>185</v>
       </c>
       <c r="C445" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D445" s="26">
         <v>48</v>
@@ -22754,7 +22760,7 @@
         <v>185</v>
       </c>
       <c r="C446" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D446" s="26">
         <v>38</v>
@@ -22783,7 +22789,7 @@
         <v>185</v>
       </c>
       <c r="C447" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D447" s="26">
         <v>45.5</v>
@@ -22812,7 +22818,7 @@
         <v>185</v>
       </c>
       <c r="C448" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D448" s="26">
         <v>38</v>
@@ -22841,7 +22847,7 @@
         <v>185</v>
       </c>
       <c r="C449" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D449" s="26">
         <v>45.5</v>
@@ -22870,7 +22876,7 @@
         <v>185</v>
       </c>
       <c r="C450" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D450" s="26">
         <v>38</v>
@@ -22899,7 +22905,7 @@
         <v>185</v>
       </c>
       <c r="C451" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D451" s="26">
         <v>46</v>
@@ -22928,7 +22934,7 @@
         <v>185</v>
       </c>
       <c r="C452" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D452" s="26">
         <v>38</v>
@@ -22957,7 +22963,7 @@
         <v>185</v>
       </c>
       <c r="C453" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D453" s="26">
         <v>45.5</v>
@@ -22986,7 +22992,7 @@
         <v>185</v>
       </c>
       <c r="C454" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D454" s="26">
         <v>38</v>
@@ -23015,7 +23021,7 @@
         <v>185</v>
       </c>
       <c r="C455" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D455" s="26">
         <v>45.5</v>
@@ -23044,7 +23050,7 @@
         <v>185</v>
       </c>
       <c r="C456" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D456" s="26">
         <v>38</v>
@@ -23073,7 +23079,7 @@
         <v>185</v>
       </c>
       <c r="C457" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D457" s="26">
         <v>45.5</v>
@@ -23102,7 +23108,7 @@
         <v>185</v>
       </c>
       <c r="C458" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D458" s="26">
         <v>38</v>
@@ -23131,7 +23137,7 @@
         <v>185</v>
       </c>
       <c r="C459" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D459" s="26">
         <v>44</v>
@@ -23160,7 +23166,7 @@
         <v>185</v>
       </c>
       <c r="C460" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D460" s="26">
         <v>38</v>
@@ -23189,7 +23195,7 @@
         <v>185</v>
       </c>
       <c r="C461" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D461" s="26">
         <v>44</v>
@@ -23218,7 +23224,7 @@
         <v>185</v>
       </c>
       <c r="C462" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D462" s="26">
         <v>38</v>
@@ -23247,7 +23253,7 @@
         <v>185</v>
       </c>
       <c r="C463" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D463" s="26">
         <v>44</v>
@@ -23276,7 +23282,7 @@
         <v>185</v>
       </c>
       <c r="C464" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D464" s="26">
         <v>38</v>
@@ -23305,7 +23311,7 @@
         <v>185</v>
       </c>
       <c r="C465" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D465" s="26">
         <v>44</v>
@@ -23334,7 +23340,7 @@
         <v>185</v>
       </c>
       <c r="C466" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D466" s="26">
         <v>38</v>
@@ -23363,7 +23369,7 @@
         <v>185</v>
       </c>
       <c r="C467" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D467" s="26">
         <v>44</v>
@@ -23392,7 +23398,7 @@
         <v>185</v>
       </c>
       <c r="C468" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D468" s="26">
         <v>38</v>
@@ -23421,7 +23427,7 @@
         <v>185</v>
       </c>
       <c r="C469" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D469" s="26">
         <v>44</v>
@@ -23450,7 +23456,7 @@
         <v>185</v>
       </c>
       <c r="C470" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D470" s="26">
         <v>38</v>
@@ -23479,7 +23485,7 @@
         <v>185</v>
       </c>
       <c r="C471" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D471" s="26">
         <v>43</v>
@@ -23508,7 +23514,7 @@
         <v>185</v>
       </c>
       <c r="C472" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D472" s="26">
         <v>38</v>
@@ -23537,7 +23543,7 @@
         <v>185</v>
       </c>
       <c r="C473" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D473" s="26">
         <v>43</v>
@@ -23566,7 +23572,7 @@
         <v>185</v>
       </c>
       <c r="C474" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D474" s="26">
         <v>38</v>
@@ -23595,7 +23601,7 @@
         <v>185</v>
       </c>
       <c r="C475" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D475" s="26">
         <v>43</v>
@@ -23624,7 +23630,7 @@
         <v>185</v>
       </c>
       <c r="C476" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D476" s="26">
         <v>38</v>
@@ -23653,7 +23659,7 @@
         <v>185</v>
       </c>
       <c r="C477" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D477" s="26">
         <v>43</v>
@@ -23682,7 +23688,7 @@
         <v>185</v>
       </c>
       <c r="C478" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D478" s="26">
         <v>38</v>
@@ -23711,7 +23717,7 @@
         <v>185</v>
       </c>
       <c r="C479" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D479" s="26">
         <v>43</v>
@@ -23740,7 +23746,7 @@
         <v>185</v>
       </c>
       <c r="C480" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D480" s="26">
         <v>38</v>
@@ -23769,7 +23775,7 @@
         <v>185</v>
       </c>
       <c r="C481" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D481" s="26">
         <v>43</v>
@@ -23798,7 +23804,7 @@
         <v>185</v>
       </c>
       <c r="C482" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D482" s="26">
         <v>38</v>
@@ -23827,7 +23833,7 @@
         <v>185</v>
       </c>
       <c r="C483" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D483" s="26">
         <v>42</v>
@@ -23856,7 +23862,7 @@
         <v>185</v>
       </c>
       <c r="C484" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D484" s="26">
         <v>38</v>
@@ -23885,7 +23891,7 @@
         <v>185</v>
       </c>
       <c r="C485" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D485" s="26">
         <v>42</v>
@@ -23914,7 +23920,7 @@
         <v>185</v>
       </c>
       <c r="C486" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D486" s="26">
         <v>38</v>
@@ -23943,7 +23949,7 @@
         <v>185</v>
       </c>
       <c r="C487" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D487" s="26">
         <v>41.5</v>
@@ -23972,7 +23978,7 @@
         <v>185</v>
       </c>
       <c r="C488" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D488" s="26">
         <v>38</v>
@@ -24001,7 +24007,7 @@
         <v>185</v>
       </c>
       <c r="C489" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D489" s="26">
         <v>42</v>
@@ -24030,7 +24036,7 @@
         <v>185</v>
       </c>
       <c r="C490" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D490" s="26">
         <v>38</v>
@@ -24059,7 +24065,7 @@
         <v>185</v>
       </c>
       <c r="C491" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D491" s="26">
         <v>42</v>
@@ -24088,7 +24094,7 @@
         <v>185</v>
       </c>
       <c r="C492" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D492" s="26">
         <v>38</v>
@@ -24117,7 +24123,7 @@
         <v>185</v>
       </c>
       <c r="C493" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D493" s="26">
         <v>42</v>
@@ -24146,7 +24152,7 @@
         <v>185</v>
       </c>
       <c r="C494" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D494" s="26">
         <v>38</v>
@@ -24175,7 +24181,7 @@
         <v>185</v>
       </c>
       <c r="C495" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D495" s="26">
         <v>41</v>
@@ -24204,7 +24210,7 @@
         <v>185</v>
       </c>
       <c r="C496" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D496" s="26">
         <v>38</v>
@@ -24233,7 +24239,7 @@
         <v>185</v>
       </c>
       <c r="C497" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D497" s="26">
         <v>41</v>
@@ -24262,7 +24268,7 @@
         <v>185</v>
       </c>
       <c r="C498" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D498" s="26">
         <v>38</v>
@@ -24291,7 +24297,7 @@
         <v>185</v>
       </c>
       <c r="C499" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D499" s="26">
         <v>41</v>
@@ -24320,7 +24326,7 @@
         <v>185</v>
       </c>
       <c r="C500" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D500" s="26">
         <v>38</v>
@@ -24349,7 +24355,7 @@
         <v>185</v>
       </c>
       <c r="C501" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D501" s="26">
         <v>41</v>
@@ -24378,7 +24384,7 @@
         <v>185</v>
       </c>
       <c r="C502" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D502" s="26">
         <v>38</v>
@@ -24407,7 +24413,7 @@
         <v>185</v>
       </c>
       <c r="C503" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D503" s="26">
         <v>41</v>
@@ -24436,7 +24442,7 @@
         <v>185</v>
       </c>
       <c r="C504" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D504" s="26">
         <v>38</v>
@@ -24465,7 +24471,7 @@
         <v>185</v>
       </c>
       <c r="C505" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D505" s="26">
         <v>41</v>
@@ -24494,7 +24500,7 @@
         <v>185</v>
       </c>
       <c r="C506" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D506" s="26">
         <v>38</v>
@@ -24521,7 +24527,7 @@
         <v>185</v>
       </c>
       <c r="C507" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D507" s="26">
         <v>54</v>
@@ -24548,7 +24554,7 @@
         <v>185</v>
       </c>
       <c r="C508" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D508" s="26">
         <v>38</v>
@@ -24575,7 +24581,7 @@
         <v>185</v>
       </c>
       <c r="C509" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D509" s="26">
         <v>54</v>
@@ -24602,7 +24608,7 @@
         <v>185</v>
       </c>
       <c r="C510" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D510" s="26">
         <v>38</v>
@@ -24629,7 +24635,7 @@
         <v>185</v>
       </c>
       <c r="C511" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D511" s="26">
         <v>54</v>
@@ -24656,7 +24662,7 @@
         <v>185</v>
       </c>
       <c r="C512" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D512" s="26">
         <v>38</v>
@@ -24683,7 +24689,7 @@
         <v>185</v>
       </c>
       <c r="C513" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D513" s="26">
         <v>54</v>
@@ -24710,7 +24716,7 @@
         <v>185</v>
       </c>
       <c r="C514" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D514" s="26">
         <v>38</v>
@@ -24737,7 +24743,7 @@
         <v>185</v>
       </c>
       <c r="C515" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D515" s="26">
         <v>54</v>
@@ -24764,7 +24770,7 @@
         <v>185</v>
       </c>
       <c r="C516" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D516" s="26">
         <v>38</v>
@@ -24791,7 +24797,7 @@
         <v>185</v>
       </c>
       <c r="C517" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D517" s="26">
         <v>54</v>
@@ -24818,7 +24824,7 @@
         <v>185</v>
       </c>
       <c r="C518" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D518" s="26">
         <v>38</v>
@@ -24847,7 +24853,7 @@
         <v>185</v>
       </c>
       <c r="C519" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D519" s="26">
         <v>50.5</v>
@@ -24876,7 +24882,7 @@
         <v>185</v>
       </c>
       <c r="C520" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D520" s="26">
         <v>38</v>
@@ -24905,7 +24911,7 @@
         <v>185</v>
       </c>
       <c r="C521" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D521" s="26">
         <v>50</v>
@@ -24934,7 +24940,7 @@
         <v>185</v>
       </c>
       <c r="C522" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D522" s="26">
         <v>38</v>
@@ -24963,7 +24969,7 @@
         <v>185</v>
       </c>
       <c r="C523" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D523" s="26">
         <v>50.5</v>
@@ -24992,7 +24998,7 @@
         <v>185</v>
       </c>
       <c r="C524" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D524" s="26">
         <v>38</v>
@@ -25021,7 +25027,7 @@
         <v>185</v>
       </c>
       <c r="C525" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D525" s="26">
         <v>50</v>
@@ -25050,7 +25056,7 @@
         <v>185</v>
       </c>
       <c r="C526" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D526" s="26">
         <v>38</v>
@@ -25079,7 +25085,7 @@
         <v>185</v>
       </c>
       <c r="C527" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D527" s="26">
         <v>50.5</v>
@@ -25108,7 +25114,7 @@
         <v>185</v>
       </c>
       <c r="C528" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D528" s="26">
         <v>38</v>
@@ -25137,7 +25143,7 @@
         <v>185</v>
       </c>
       <c r="C529" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D529" s="26">
         <v>50</v>
@@ -25166,7 +25172,7 @@
         <v>185</v>
       </c>
       <c r="C530" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D530" s="26">
         <v>38</v>
@@ -25195,7 +25201,7 @@
         <v>185</v>
       </c>
       <c r="C531" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D531" s="26">
         <v>47.5</v>
@@ -25224,7 +25230,7 @@
         <v>185</v>
       </c>
       <c r="C532" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D532" s="26">
         <v>38</v>
@@ -25253,7 +25259,7 @@
         <v>185</v>
       </c>
       <c r="C533" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D533" s="26">
         <v>48</v>
@@ -25282,7 +25288,7 @@
         <v>185</v>
       </c>
       <c r="C534" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D534" s="26">
         <v>38</v>
@@ -25311,7 +25317,7 @@
         <v>185</v>
       </c>
       <c r="C535" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D535" s="26">
         <v>47.5</v>
@@ -25340,7 +25346,7 @@
         <v>185</v>
       </c>
       <c r="C536" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D536" s="26">
         <v>38</v>
@@ -25369,7 +25375,7 @@
         <v>185</v>
       </c>
       <c r="C537" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D537" s="26">
         <v>47.5</v>
@@ -25398,7 +25404,7 @@
         <v>185</v>
       </c>
       <c r="C538" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D538" s="26">
         <v>38</v>
@@ -25427,7 +25433,7 @@
         <v>185</v>
       </c>
       <c r="C539" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D539" s="26">
         <v>48</v>
@@ -25456,7 +25462,7 @@
         <v>185</v>
       </c>
       <c r="C540" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D540" s="26">
         <v>38</v>
@@ -25485,7 +25491,7 @@
         <v>185</v>
       </c>
       <c r="C541" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D541" s="26">
         <v>48</v>
@@ -25514,7 +25520,7 @@
         <v>185</v>
       </c>
       <c r="C542" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D542" s="26">
         <v>38</v>
@@ -25543,7 +25549,7 @@
         <v>185</v>
       </c>
       <c r="C543" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D543" s="26">
         <v>46</v>
@@ -25572,7 +25578,7 @@
         <v>185</v>
       </c>
       <c r="C544" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D544" s="26">
         <v>38</v>
@@ -25601,7 +25607,7 @@
         <v>185</v>
       </c>
       <c r="C545" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D545" s="26">
         <v>45.5</v>
@@ -25630,7 +25636,7 @@
         <v>185</v>
       </c>
       <c r="C546" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D546" s="26">
         <v>38</v>
@@ -25659,7 +25665,7 @@
         <v>185</v>
       </c>
       <c r="C547" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D547" s="26">
         <v>46</v>
@@ -25688,7 +25694,7 @@
         <v>185</v>
       </c>
       <c r="C548" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D548" s="26">
         <v>38</v>
@@ -25717,7 +25723,7 @@
         <v>185</v>
       </c>
       <c r="C549" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D549" s="26">
         <v>46</v>
@@ -25746,7 +25752,7 @@
         <v>185</v>
       </c>
       <c r="C550" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D550" s="26">
         <v>38</v>
@@ -25775,7 +25781,7 @@
         <v>185</v>
       </c>
       <c r="C551" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D551" s="26">
         <v>45.5</v>
@@ -25804,7 +25810,7 @@
         <v>185</v>
       </c>
       <c r="C552" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D552" s="26">
         <v>38</v>
@@ -25833,7 +25839,7 @@
         <v>185</v>
       </c>
       <c r="C553" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D553" s="26">
         <v>46</v>
@@ -25862,7 +25868,7 @@
         <v>185</v>
       </c>
       <c r="C554" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D554" s="26">
         <v>38</v>
@@ -25891,7 +25897,7 @@
         <v>185</v>
       </c>
       <c r="C555" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D555" s="26">
         <v>44.5</v>
@@ -25920,7 +25926,7 @@
         <v>185</v>
       </c>
       <c r="C556" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D556" s="26">
         <v>38</v>
@@ -25949,7 +25955,7 @@
         <v>185</v>
       </c>
       <c r="C557" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D557" s="26">
         <v>44</v>
@@ -25978,7 +25984,7 @@
         <v>185</v>
       </c>
       <c r="C558" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D558" s="26">
         <v>38</v>
@@ -26007,7 +26013,7 @@
         <v>185</v>
       </c>
       <c r="C559" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D559" s="26">
         <v>44</v>
@@ -26036,7 +26042,7 @@
         <v>185</v>
       </c>
       <c r="C560" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D560" s="26">
         <v>38</v>
@@ -26065,7 +26071,7 @@
         <v>185</v>
       </c>
       <c r="C561" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D561" s="26">
         <v>44</v>
@@ -26094,7 +26100,7 @@
         <v>185</v>
       </c>
       <c r="C562" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D562" s="26">
         <v>38</v>
@@ -26123,7 +26129,7 @@
         <v>185</v>
       </c>
       <c r="C563" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D563" s="26">
         <v>44.5</v>
@@ -26152,7 +26158,7 @@
         <v>185</v>
       </c>
       <c r="C564" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D564" s="26">
         <v>38</v>
@@ -26181,7 +26187,7 @@
         <v>185</v>
       </c>
       <c r="C565" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D565" s="26">
         <v>44</v>
@@ -26211,8 +26217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{737297A3-9A9F-8F4C-B3A3-2DCDC5E4B562}">
   <dimension ref="A1:H289"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -26259,7 +26265,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>186</v>
@@ -26285,7 +26291,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>186</v>
@@ -26311,7 +26317,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>186</v>
@@ -26337,7 +26343,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>186</v>
@@ -26363,7 +26369,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>186</v>
@@ -26389,7 +26395,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>186</v>
@@ -26415,7 +26421,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>186</v>
@@ -26441,7 +26447,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>186</v>
@@ -26467,7 +26473,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>186</v>
@@ -26493,7 +26499,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>186</v>
@@ -26519,7 +26525,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>186</v>
@@ -26545,7 +26551,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>186</v>
@@ -26571,7 +26577,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>187</v>
@@ -26597,7 +26603,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>187</v>
@@ -26623,7 +26629,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>187</v>
@@ -26649,7 +26655,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>187</v>
@@ -26675,7 +26681,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>187</v>
@@ -26701,7 +26707,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>187</v>
@@ -26727,7 +26733,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>187</v>
@@ -26753,7 +26759,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>187</v>
@@ -26779,7 +26785,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>187</v>
@@ -26805,7 +26811,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>187</v>
@@ -26831,7 +26837,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>187</v>
@@ -26857,7 +26863,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>187</v>
@@ -26883,7 +26889,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>186</v>
@@ -26909,7 +26915,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>186</v>
@@ -26935,7 +26941,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>186</v>
@@ -26961,7 +26967,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>186</v>
@@ -26987,7 +26993,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>186</v>
@@ -27013,7 +27019,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>186</v>
@@ -27039,7 +27045,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>186</v>
@@ -27065,7 +27071,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>186</v>
@@ -27091,7 +27097,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>186</v>
@@ -27117,7 +27123,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>186</v>
@@ -27143,7 +27149,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>186</v>
@@ -27169,7 +27175,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>186</v>
@@ -27195,7 +27201,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>187</v>
@@ -27221,7 +27227,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>187</v>
@@ -27247,7 +27253,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>187</v>
@@ -27273,7 +27279,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>187</v>
@@ -27299,7 +27305,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>187</v>
@@ -27325,7 +27331,7 @@
         <v>6</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>187</v>
@@ -27351,7 +27357,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>187</v>
@@ -27377,7 +27383,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>187</v>
@@ -27403,7 +27409,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>187</v>
@@ -27429,7 +27435,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>187</v>
@@ -27455,7 +27461,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>187</v>
@@ -27481,7 +27487,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>187</v>
@@ -27507,7 +27513,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>186</v>
@@ -27533,7 +27539,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>186</v>
@@ -27559,7 +27565,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>186</v>
@@ -27585,7 +27591,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>186</v>
@@ -27611,7 +27617,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>186</v>
@@ -27637,7 +27643,7 @@
         <v>6</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>186</v>
@@ -27663,7 +27669,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>186</v>
@@ -27689,7 +27695,7 @@
         <v>2</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>186</v>
@@ -27715,7 +27721,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>186</v>
@@ -27741,7 +27747,7 @@
         <v>4</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C59" s="26" t="s">
         <v>186</v>
@@ -27767,7 +27773,7 @@
         <v>5</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C60" s="26" t="s">
         <v>186</v>
@@ -27793,7 +27799,7 @@
         <v>6</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C61" s="26" t="s">
         <v>186</v>
@@ -27819,7 +27825,7 @@
         <v>1</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C62" s="26" t="s">
         <v>187</v>
@@ -27845,7 +27851,7 @@
         <v>2</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>187</v>
@@ -27871,7 +27877,7 @@
         <v>3</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C64" s="26" t="s">
         <v>187</v>
@@ -27897,7 +27903,7 @@
         <v>4</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C65" s="26" t="s">
         <v>187</v>
@@ -27923,7 +27929,7 @@
         <v>5</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>187</v>
@@ -27949,7 +27955,7 @@
         <v>6</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>187</v>
@@ -27975,7 +27981,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>187</v>
@@ -28001,7 +28007,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>187</v>
@@ -28027,7 +28033,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C70" s="26" t="s">
         <v>187</v>
@@ -28053,7 +28059,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>187</v>
@@ -28079,7 +28085,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>187</v>
@@ -28105,7 +28111,7 @@
         <v>6</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>187</v>
@@ -28131,7 +28137,7 @@
         <v>1</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>186</v>
@@ -28157,7 +28163,7 @@
         <v>2</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>186</v>
@@ -28183,7 +28189,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>186</v>
@@ -28209,7 +28215,7 @@
         <v>4</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C77" s="26" t="s">
         <v>186</v>
@@ -28235,7 +28241,7 @@
         <v>5</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C78" s="26" t="s">
         <v>186</v>
@@ -28261,7 +28267,7 @@
         <v>6</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C79" s="26" t="s">
         <v>186</v>
@@ -28287,7 +28293,7 @@
         <v>1</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C80" s="26" t="s">
         <v>186</v>
@@ -28313,7 +28319,7 @@
         <v>2</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C81" s="26" t="s">
         <v>186</v>
@@ -28339,7 +28345,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C82" s="26" t="s">
         <v>186</v>
@@ -28365,7 +28371,7 @@
         <v>4</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C83" s="26" t="s">
         <v>186</v>
@@ -28391,7 +28397,7 @@
         <v>5</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>186</v>
@@ -28417,7 +28423,7 @@
         <v>6</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>186</v>
@@ -28443,7 +28449,7 @@
         <v>1</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C86" s="26" t="s">
         <v>187</v>
@@ -28469,7 +28475,7 @@
         <v>2</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>187</v>
@@ -28495,7 +28501,7 @@
         <v>3</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C88" s="26" t="s">
         <v>187</v>
@@ -28521,7 +28527,7 @@
         <v>4</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C89" s="26" t="s">
         <v>187</v>
@@ -28547,7 +28553,7 @@
         <v>5</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C90" s="26" t="s">
         <v>187</v>
@@ -28573,7 +28579,7 @@
         <v>6</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C91" s="26" t="s">
         <v>187</v>
@@ -28599,7 +28605,7 @@
         <v>1</v>
       </c>
       <c r="B92" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C92" s="26" t="s">
         <v>187</v>
@@ -28625,7 +28631,7 @@
         <v>2</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C93" s="26" t="s">
         <v>187</v>
@@ -28651,7 +28657,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C94" s="26" t="s">
         <v>187</v>
@@ -28677,7 +28683,7 @@
         <v>4</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C95" s="26" t="s">
         <v>187</v>
@@ -28703,7 +28709,7 @@
         <v>5</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C96" s="26" t="s">
         <v>187</v>
@@ -28729,7 +28735,7 @@
         <v>6</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C97" s="26" t="s">
         <v>187</v>
@@ -28755,7 +28761,7 @@
         <v>1</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C98" s="26" t="s">
         <v>186</v>
@@ -28781,7 +28787,7 @@
         <v>2</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C99" s="26" t="s">
         <v>186</v>
@@ -28807,7 +28813,7 @@
         <v>3</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C100" s="26" t="s">
         <v>186</v>
@@ -28833,7 +28839,7 @@
         <v>4</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C101" s="26" t="s">
         <v>186</v>
@@ -28859,7 +28865,7 @@
         <v>5</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C102" s="26" t="s">
         <v>186</v>
@@ -28885,7 +28891,7 @@
         <v>6</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C103" s="26" t="s">
         <v>186</v>
@@ -28911,7 +28917,7 @@
         <v>1</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C104" s="26" t="s">
         <v>186</v>
@@ -28937,7 +28943,7 @@
         <v>2</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C105" s="26" t="s">
         <v>186</v>
@@ -28963,7 +28969,7 @@
         <v>3</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C106" s="26" t="s">
         <v>186</v>
@@ -28989,7 +28995,7 @@
         <v>4</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C107" s="26" t="s">
         <v>186</v>
@@ -29015,7 +29021,7 @@
         <v>5</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C108" s="26" t="s">
         <v>186</v>
@@ -29041,7 +29047,7 @@
         <v>6</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C109" s="26" t="s">
         <v>186</v>
@@ -29067,7 +29073,7 @@
         <v>1</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C110" s="26" t="s">
         <v>187</v>
@@ -29093,7 +29099,7 @@
         <v>2</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C111" s="26" t="s">
         <v>187</v>
@@ -29119,7 +29125,7 @@
         <v>3</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C112" s="26" t="s">
         <v>187</v>
@@ -29145,7 +29151,7 @@
         <v>4</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C113" s="26" t="s">
         <v>187</v>
@@ -29171,7 +29177,7 @@
         <v>5</v>
       </c>
       <c r="B114" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C114" s="26" t="s">
         <v>187</v>
@@ -29197,7 +29203,7 @@
         <v>6</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C115" s="26" t="s">
         <v>187</v>
@@ -29223,7 +29229,7 @@
         <v>1</v>
       </c>
       <c r="B116" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C116" s="26" t="s">
         <v>187</v>
@@ -29249,7 +29255,7 @@
         <v>2</v>
       </c>
       <c r="B117" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C117" s="26" t="s">
         <v>187</v>
@@ -29275,7 +29281,7 @@
         <v>3</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C118" s="26" t="s">
         <v>187</v>
@@ -29301,7 +29307,7 @@
         <v>4</v>
       </c>
       <c r="B119" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C119" s="26" t="s">
         <v>187</v>
@@ -29327,7 +29333,7 @@
         <v>5</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C120" s="26" t="s">
         <v>187</v>
@@ -29353,7 +29359,7 @@
         <v>6</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C121" s="26" t="s">
         <v>187</v>
@@ -29379,7 +29385,7 @@
         <v>1</v>
       </c>
       <c r="B122" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C122" s="26" t="s">
         <v>186</v>
@@ -29405,7 +29411,7 @@
         <v>2</v>
       </c>
       <c r="B123" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C123" s="26" t="s">
         <v>186</v>
@@ -29431,7 +29437,7 @@
         <v>3</v>
       </c>
       <c r="B124" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C124" s="26" t="s">
         <v>186</v>
@@ -29457,7 +29463,7 @@
         <v>4</v>
       </c>
       <c r="B125" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C125" s="26" t="s">
         <v>186</v>
@@ -29483,7 +29489,7 @@
         <v>5</v>
       </c>
       <c r="B126" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C126" s="26" t="s">
         <v>186</v>
@@ -29509,7 +29515,7 @@
         <v>6</v>
       </c>
       <c r="B127" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C127" s="26" t="s">
         <v>186</v>
@@ -29535,7 +29541,7 @@
         <v>1</v>
       </c>
       <c r="B128" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C128" s="26" t="s">
         <v>186</v>
@@ -29561,7 +29567,7 @@
         <v>2</v>
       </c>
       <c r="B129" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C129" s="26" t="s">
         <v>186</v>
@@ -29587,7 +29593,7 @@
         <v>3</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C130" s="26" t="s">
         <v>186</v>
@@ -29613,7 +29619,7 @@
         <v>4</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C131" s="26" t="s">
         <v>186</v>
@@ -29639,7 +29645,7 @@
         <v>5</v>
       </c>
       <c r="B132" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C132" s="26" t="s">
         <v>186</v>
@@ -29665,7 +29671,7 @@
         <v>6</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C133" s="26" t="s">
         <v>186</v>
@@ -29691,7 +29697,7 @@
         <v>1</v>
       </c>
       <c r="B134" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C134" s="26" t="s">
         <v>187</v>
@@ -29717,7 +29723,7 @@
         <v>2</v>
       </c>
       <c r="B135" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C135" s="26" t="s">
         <v>187</v>
@@ -29743,7 +29749,7 @@
         <v>3</v>
       </c>
       <c r="B136" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C136" s="26" t="s">
         <v>187</v>
@@ -29769,7 +29775,7 @@
         <v>4</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C137" s="26" t="s">
         <v>187</v>
@@ -29795,7 +29801,7 @@
         <v>5</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C138" s="26" t="s">
         <v>187</v>
@@ -29821,7 +29827,7 @@
         <v>6</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C139" s="26" t="s">
         <v>187</v>
@@ -29847,7 +29853,7 @@
         <v>1</v>
       </c>
       <c r="B140" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C140" s="26" t="s">
         <v>187</v>
@@ -29873,7 +29879,7 @@
         <v>2</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C141" s="26" t="s">
         <v>187</v>
@@ -29899,7 +29905,7 @@
         <v>3</v>
       </c>
       <c r="B142" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C142" s="26" t="s">
         <v>187</v>
@@ -29925,7 +29931,7 @@
         <v>4</v>
       </c>
       <c r="B143" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C143" s="26" t="s">
         <v>187</v>
@@ -29951,7 +29957,7 @@
         <v>5</v>
       </c>
       <c r="B144" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C144" s="26" t="s">
         <v>187</v>
@@ -29977,7 +29983,7 @@
         <v>6</v>
       </c>
       <c r="B145" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C145" s="26" t="s">
         <v>187</v>
@@ -30003,7 +30009,7 @@
         <v>1</v>
       </c>
       <c r="B146" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C146" s="26" t="s">
         <v>186</v>
@@ -30029,7 +30035,7 @@
         <v>2</v>
       </c>
       <c r="B147" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C147" s="26" t="s">
         <v>186</v>
@@ -30055,7 +30061,7 @@
         <v>3</v>
       </c>
       <c r="B148" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C148" s="26" t="s">
         <v>186</v>
@@ -30081,7 +30087,7 @@
         <v>4</v>
       </c>
       <c r="B149" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C149" s="26" t="s">
         <v>186</v>
@@ -30107,7 +30113,7 @@
         <v>5</v>
       </c>
       <c r="B150" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C150" s="26" t="s">
         <v>186</v>
@@ -30133,7 +30139,7 @@
         <v>6</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C151" s="26" t="s">
         <v>186</v>
@@ -30159,7 +30165,7 @@
         <v>1</v>
       </c>
       <c r="B152" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C152" s="26" t="s">
         <v>186</v>
@@ -30185,7 +30191,7 @@
         <v>2</v>
       </c>
       <c r="B153" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C153" s="26" t="s">
         <v>186</v>
@@ -30211,7 +30217,7 @@
         <v>3</v>
       </c>
       <c r="B154" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C154" s="26" t="s">
         <v>186</v>
@@ -30237,7 +30243,7 @@
         <v>4</v>
       </c>
       <c r="B155" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C155" s="26" t="s">
         <v>186</v>
@@ -30263,7 +30269,7 @@
         <v>5</v>
       </c>
       <c r="B156" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C156" s="26" t="s">
         <v>186</v>
@@ -30289,7 +30295,7 @@
         <v>6</v>
       </c>
       <c r="B157" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C157" s="26" t="s">
         <v>186</v>
@@ -30315,7 +30321,7 @@
         <v>1</v>
       </c>
       <c r="B158" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C158" s="26" t="s">
         <v>187</v>
@@ -30341,7 +30347,7 @@
         <v>2</v>
       </c>
       <c r="B159" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C159" s="26" t="s">
         <v>187</v>
@@ -30367,7 +30373,7 @@
         <v>3</v>
       </c>
       <c r="B160" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C160" s="26" t="s">
         <v>187</v>
@@ -30393,7 +30399,7 @@
         <v>4</v>
       </c>
       <c r="B161" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C161" s="26" t="s">
         <v>187</v>
@@ -30419,7 +30425,7 @@
         <v>5</v>
       </c>
       <c r="B162" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C162" s="26" t="s">
         <v>187</v>
@@ -30445,7 +30451,7 @@
         <v>6</v>
       </c>
       <c r="B163" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C163" s="26" t="s">
         <v>187</v>
@@ -30471,7 +30477,7 @@
         <v>1</v>
       </c>
       <c r="B164" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C164" s="26" t="s">
         <v>187</v>
@@ -30497,7 +30503,7 @@
         <v>2</v>
       </c>
       <c r="B165" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C165" s="26" t="s">
         <v>187</v>
@@ -30523,7 +30529,7 @@
         <v>3</v>
       </c>
       <c r="B166" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C166" s="26" t="s">
         <v>187</v>
@@ -30549,7 +30555,7 @@
         <v>4</v>
       </c>
       <c r="B167" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C167" s="26" t="s">
         <v>187</v>
@@ -30575,7 +30581,7 @@
         <v>5</v>
       </c>
       <c r="B168" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C168" s="26" t="s">
         <v>187</v>
@@ -30601,7 +30607,7 @@
         <v>6</v>
       </c>
       <c r="B169" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C169" s="26" t="s">
         <v>187</v>
@@ -30627,7 +30633,7 @@
         <v>1</v>
       </c>
       <c r="B170" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C170" s="26" t="s">
         <v>186</v>
@@ -30653,7 +30659,7 @@
         <v>2</v>
       </c>
       <c r="B171" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C171" s="26" t="s">
         <v>186</v>
@@ -30679,7 +30685,7 @@
         <v>3</v>
       </c>
       <c r="B172" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C172" s="26" t="s">
         <v>186</v>
@@ -30705,7 +30711,7 @@
         <v>4</v>
       </c>
       <c r="B173" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C173" s="26" t="s">
         <v>186</v>
@@ -30731,7 +30737,7 @@
         <v>5</v>
       </c>
       <c r="B174" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C174" s="26" t="s">
         <v>186</v>
@@ -30757,7 +30763,7 @@
         <v>6</v>
       </c>
       <c r="B175" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C175" s="26" t="s">
         <v>186</v>
@@ -30783,7 +30789,7 @@
         <v>1</v>
       </c>
       <c r="B176" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C176" s="26" t="s">
         <v>186</v>
@@ -30809,7 +30815,7 @@
         <v>2</v>
       </c>
       <c r="B177" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C177" s="26" t="s">
         <v>186</v>
@@ -30835,7 +30841,7 @@
         <v>3</v>
       </c>
       <c r="B178" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C178" s="26" t="s">
         <v>186</v>
@@ -30861,7 +30867,7 @@
         <v>4</v>
       </c>
       <c r="B179" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C179" s="26" t="s">
         <v>186</v>
@@ -30887,7 +30893,7 @@
         <v>5</v>
       </c>
       <c r="B180" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C180" s="26" t="s">
         <v>186</v>
@@ -30913,7 +30919,7 @@
         <v>6</v>
       </c>
       <c r="B181" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C181" s="26" t="s">
         <v>186</v>
@@ -30939,7 +30945,7 @@
         <v>1</v>
       </c>
       <c r="B182" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C182" s="26" t="s">
         <v>187</v>
@@ -30965,7 +30971,7 @@
         <v>2</v>
       </c>
       <c r="B183" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C183" s="26" t="s">
         <v>187</v>
@@ -30991,7 +30997,7 @@
         <v>3</v>
       </c>
       <c r="B184" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C184" s="26" t="s">
         <v>187</v>
@@ -31017,7 +31023,7 @@
         <v>4</v>
       </c>
       <c r="B185" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C185" s="26" t="s">
         <v>187</v>
@@ -31043,7 +31049,7 @@
         <v>5</v>
       </c>
       <c r="B186" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C186" s="26" t="s">
         <v>187</v>
@@ -31069,7 +31075,7 @@
         <v>6</v>
       </c>
       <c r="B187" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C187" s="26" t="s">
         <v>187</v>
@@ -31095,7 +31101,7 @@
         <v>1</v>
       </c>
       <c r="B188" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C188" s="26" t="s">
         <v>187</v>
@@ -31121,7 +31127,7 @@
         <v>2</v>
       </c>
       <c r="B189" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C189" s="26" t="s">
         <v>187</v>
@@ -31147,7 +31153,7 @@
         <v>3</v>
       </c>
       <c r="B190" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C190" s="26" t="s">
         <v>187</v>
@@ -31173,7 +31179,7 @@
         <v>4</v>
       </c>
       <c r="B191" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C191" s="26" t="s">
         <v>187</v>
@@ -31199,7 +31205,7 @@
         <v>5</v>
       </c>
       <c r="B192" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C192" s="26" t="s">
         <v>187</v>
@@ -31225,7 +31231,7 @@
         <v>6</v>
       </c>
       <c r="B193" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C193" s="26" t="s">
         <v>187</v>
@@ -31251,7 +31257,7 @@
         <v>1</v>
       </c>
       <c r="B194" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C194" s="26" t="s">
         <v>186</v>
@@ -31277,7 +31283,7 @@
         <v>2</v>
       </c>
       <c r="B195" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C195" s="26" t="s">
         <v>186</v>
@@ -31303,7 +31309,7 @@
         <v>3</v>
       </c>
       <c r="B196" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C196" s="26" t="s">
         <v>186</v>
@@ -31329,7 +31335,7 @@
         <v>4</v>
       </c>
       <c r="B197" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C197" s="26" t="s">
         <v>186</v>
@@ -31355,7 +31361,7 @@
         <v>5</v>
       </c>
       <c r="B198" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C198" s="26" t="s">
         <v>186</v>
@@ -31381,7 +31387,7 @@
         <v>6</v>
       </c>
       <c r="B199" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C199" s="26" t="s">
         <v>186</v>
@@ -31407,7 +31413,7 @@
         <v>1</v>
       </c>
       <c r="B200" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C200" s="26" t="s">
         <v>186</v>
@@ -31433,7 +31439,7 @@
         <v>2</v>
       </c>
       <c r="B201" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C201" s="26" t="s">
         <v>186</v>
@@ -31459,7 +31465,7 @@
         <v>3</v>
       </c>
       <c r="B202" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C202" s="26" t="s">
         <v>186</v>
@@ -31485,7 +31491,7 @@
         <v>4</v>
       </c>
       <c r="B203" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C203" s="26" t="s">
         <v>186</v>
@@ -31511,7 +31517,7 @@
         <v>5</v>
       </c>
       <c r="B204" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C204" s="26" t="s">
         <v>186</v>
@@ -31537,7 +31543,7 @@
         <v>6</v>
       </c>
       <c r="B205" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C205" s="26" t="s">
         <v>186</v>
@@ -31563,7 +31569,7 @@
         <v>1</v>
       </c>
       <c r="B206" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C206" s="26" t="s">
         <v>187</v>
@@ -31589,7 +31595,7 @@
         <v>2</v>
       </c>
       <c r="B207" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C207" s="26" t="s">
         <v>187</v>
@@ -31615,7 +31621,7 @@
         <v>3</v>
       </c>
       <c r="B208" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C208" s="26" t="s">
         <v>187</v>
@@ -31641,7 +31647,7 @@
         <v>4</v>
       </c>
       <c r="B209" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C209" s="26" t="s">
         <v>187</v>
@@ -31667,7 +31673,7 @@
         <v>5</v>
       </c>
       <c r="B210" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C210" s="26" t="s">
         <v>187</v>
@@ -31693,7 +31699,7 @@
         <v>6</v>
       </c>
       <c r="B211" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C211" s="26" t="s">
         <v>187</v>
@@ -31719,7 +31725,7 @@
         <v>1</v>
       </c>
       <c r="B212" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C212" s="26" t="s">
         <v>187</v>
@@ -31745,7 +31751,7 @@
         <v>2</v>
       </c>
       <c r="B213" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C213" s="26" t="s">
         <v>187</v>
@@ -31771,7 +31777,7 @@
         <v>3</v>
       </c>
       <c r="B214" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C214" s="26" t="s">
         <v>187</v>
@@ -31797,7 +31803,7 @@
         <v>4</v>
       </c>
       <c r="B215" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C215" s="26" t="s">
         <v>187</v>
@@ -31823,7 +31829,7 @@
         <v>5</v>
       </c>
       <c r="B216" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C216" s="26" t="s">
         <v>187</v>
@@ -31849,7 +31855,7 @@
         <v>6</v>
       </c>
       <c r="B217" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C217" s="26" t="s">
         <v>187</v>
@@ -31875,7 +31881,7 @@
         <v>1</v>
       </c>
       <c r="B218" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C218" s="26" t="s">
         <v>186</v>
@@ -31901,7 +31907,7 @@
         <v>2</v>
       </c>
       <c r="B219" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C219" s="26" t="s">
         <v>186</v>
@@ -31927,7 +31933,7 @@
         <v>3</v>
       </c>
       <c r="B220" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C220" s="26" t="s">
         <v>186</v>
@@ -31953,7 +31959,7 @@
         <v>4</v>
       </c>
       <c r="B221" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C221" s="26" t="s">
         <v>186</v>
@@ -31979,7 +31985,7 @@
         <v>5</v>
       </c>
       <c r="B222" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C222" s="26" t="s">
         <v>186</v>
@@ -32005,7 +32011,7 @@
         <v>6</v>
       </c>
       <c r="B223" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C223" s="26" t="s">
         <v>186</v>
@@ -32031,7 +32037,7 @@
         <v>1</v>
       </c>
       <c r="B224" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C224" s="26" t="s">
         <v>186</v>
@@ -32057,7 +32063,7 @@
         <v>2</v>
       </c>
       <c r="B225" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C225" s="26" t="s">
         <v>186</v>
@@ -32083,7 +32089,7 @@
         <v>3</v>
       </c>
       <c r="B226" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C226" s="26" t="s">
         <v>186</v>
@@ -32109,7 +32115,7 @@
         <v>4</v>
       </c>
       <c r="B227" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C227" s="26" t="s">
         <v>186</v>
@@ -32135,7 +32141,7 @@
         <v>5</v>
       </c>
       <c r="B228" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C228" s="26" t="s">
         <v>186</v>
@@ -32161,7 +32167,7 @@
         <v>6</v>
       </c>
       <c r="B229" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C229" s="26" t="s">
         <v>186</v>
@@ -32187,7 +32193,7 @@
         <v>1</v>
       </c>
       <c r="B230" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C230" s="26" t="s">
         <v>187</v>
@@ -32213,7 +32219,7 @@
         <v>2</v>
       </c>
       <c r="B231" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C231" s="26" t="s">
         <v>187</v>
@@ -32239,7 +32245,7 @@
         <v>3</v>
       </c>
       <c r="B232" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C232" s="26" t="s">
         <v>187</v>
@@ -32265,7 +32271,7 @@
         <v>4</v>
       </c>
       <c r="B233" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C233" s="26" t="s">
         <v>187</v>
@@ -32291,7 +32297,7 @@
         <v>5</v>
       </c>
       <c r="B234" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C234" s="26" t="s">
         <v>187</v>
@@ -32317,7 +32323,7 @@
         <v>6</v>
       </c>
       <c r="B235" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C235" s="26" t="s">
         <v>187</v>
@@ -32343,7 +32349,7 @@
         <v>1</v>
       </c>
       <c r="B236" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C236" s="26" t="s">
         <v>187</v>
@@ -32369,7 +32375,7 @@
         <v>2</v>
       </c>
       <c r="B237" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C237" s="26" t="s">
         <v>187</v>
@@ -32395,7 +32401,7 @@
         <v>3</v>
       </c>
       <c r="B238" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C238" s="26" t="s">
         <v>187</v>
@@ -32421,7 +32427,7 @@
         <v>4</v>
       </c>
       <c r="B239" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C239" s="26" t="s">
         <v>187</v>
@@ -32447,7 +32453,7 @@
         <v>5</v>
       </c>
       <c r="B240" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C240" s="26" t="s">
         <v>187</v>
@@ -32473,7 +32479,7 @@
         <v>6</v>
       </c>
       <c r="B241" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C241" s="26" t="s">
         <v>187</v>
@@ -32499,7 +32505,7 @@
         <v>1</v>
       </c>
       <c r="B242" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C242" s="26" t="s">
         <v>186</v>
@@ -32525,7 +32531,7 @@
         <v>2</v>
       </c>
       <c r="B243" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C243" s="26" t="s">
         <v>186</v>
@@ -32551,7 +32557,7 @@
         <v>3</v>
       </c>
       <c r="B244" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C244" s="26" t="s">
         <v>186</v>
@@ -32577,7 +32583,7 @@
         <v>4</v>
       </c>
       <c r="B245" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C245" s="26" t="s">
         <v>186</v>
@@ -32603,7 +32609,7 @@
         <v>5</v>
       </c>
       <c r="B246" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C246" s="26" t="s">
         <v>186</v>
@@ -32629,7 +32635,7 @@
         <v>6</v>
       </c>
       <c r="B247" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C247" s="26" t="s">
         <v>186</v>
@@ -32655,7 +32661,7 @@
         <v>1</v>
       </c>
       <c r="B248" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C248" s="26" t="s">
         <v>186</v>
@@ -32681,7 +32687,7 @@
         <v>2</v>
       </c>
       <c r="B249" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C249" s="26" t="s">
         <v>186</v>
@@ -32707,7 +32713,7 @@
         <v>3</v>
       </c>
       <c r="B250" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C250" s="26" t="s">
         <v>186</v>
@@ -32733,7 +32739,7 @@
         <v>4</v>
       </c>
       <c r="B251" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C251" s="26" t="s">
         <v>186</v>
@@ -32759,7 +32765,7 @@
         <v>5</v>
       </c>
       <c r="B252" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C252" s="26" t="s">
         <v>186</v>
@@ -32785,7 +32791,7 @@
         <v>6</v>
       </c>
       <c r="B253" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C253" s="26" t="s">
         <v>186</v>
@@ -32811,7 +32817,7 @@
         <v>1</v>
       </c>
       <c r="B254" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C254" s="26" t="s">
         <v>187</v>
@@ -32837,7 +32843,7 @@
         <v>2</v>
       </c>
       <c r="B255" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C255" s="26" t="s">
         <v>187</v>
@@ -32863,7 +32869,7 @@
         <v>3</v>
       </c>
       <c r="B256" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C256" s="26" t="s">
         <v>187</v>
@@ -32889,7 +32895,7 @@
         <v>4</v>
       </c>
       <c r="B257" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C257" s="26" t="s">
         <v>187</v>
@@ -32915,7 +32921,7 @@
         <v>5</v>
       </c>
       <c r="B258" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C258" s="26" t="s">
         <v>187</v>
@@ -32941,7 +32947,7 @@
         <v>6</v>
       </c>
       <c r="B259" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C259" s="26" t="s">
         <v>187</v>
@@ -32967,7 +32973,7 @@
         <v>1</v>
       </c>
       <c r="B260" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C260" s="26" t="s">
         <v>187</v>
@@ -32993,7 +32999,7 @@
         <v>2</v>
       </c>
       <c r="B261" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C261" s="26" t="s">
         <v>187</v>
@@ -33019,7 +33025,7 @@
         <v>3</v>
       </c>
       <c r="B262" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C262" s="26" t="s">
         <v>187</v>
@@ -33045,7 +33051,7 @@
         <v>4</v>
       </c>
       <c r="B263" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C263" s="26" t="s">
         <v>187</v>
@@ -33071,7 +33077,7 @@
         <v>5</v>
       </c>
       <c r="B264" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C264" s="26" t="s">
         <v>187</v>
@@ -33097,7 +33103,7 @@
         <v>6</v>
       </c>
       <c r="B265" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C265" s="26" t="s">
         <v>187</v>
@@ -33123,7 +33129,7 @@
         <v>1</v>
       </c>
       <c r="B266" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C266" s="26" t="s">
         <v>186</v>
@@ -33149,7 +33155,7 @@
         <v>2</v>
       </c>
       <c r="B267" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C267" s="26" t="s">
         <v>186</v>
@@ -33175,7 +33181,7 @@
         <v>3</v>
       </c>
       <c r="B268" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C268" s="26" t="s">
         <v>186</v>
@@ -33201,7 +33207,7 @@
         <v>4</v>
       </c>
       <c r="B269" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C269" s="26" t="s">
         <v>186</v>
@@ -33227,7 +33233,7 @@
         <v>5</v>
       </c>
       <c r="B270" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C270" s="26" t="s">
         <v>186</v>
@@ -33253,7 +33259,7 @@
         <v>6</v>
       </c>
       <c r="B271" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C271" s="26" t="s">
         <v>186</v>
@@ -33279,7 +33285,7 @@
         <v>1</v>
       </c>
       <c r="B272" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C272" s="26" t="s">
         <v>186</v>
@@ -33305,7 +33311,7 @@
         <v>2</v>
       </c>
       <c r="B273" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C273" s="26" t="s">
         <v>186</v>
@@ -33331,7 +33337,7 @@
         <v>3</v>
       </c>
       <c r="B274" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C274" s="26" t="s">
         <v>186</v>
@@ -33357,7 +33363,7 @@
         <v>4</v>
       </c>
       <c r="B275" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C275" s="26" t="s">
         <v>186</v>
@@ -33383,7 +33389,7 @@
         <v>5</v>
       </c>
       <c r="B276" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C276" s="26" t="s">
         <v>186</v>
@@ -33409,7 +33415,7 @@
         <v>6</v>
       </c>
       <c r="B277" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C277" s="26" t="s">
         <v>186</v>
@@ -33435,7 +33441,7 @@
         <v>1</v>
       </c>
       <c r="B278" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C278" s="26" t="s">
         <v>187</v>
@@ -33461,7 +33467,7 @@
         <v>2</v>
       </c>
       <c r="B279" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C279" s="26" t="s">
         <v>187</v>
@@ -33487,7 +33493,7 @@
         <v>3</v>
       </c>
       <c r="B280" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C280" s="26" t="s">
         <v>187</v>
@@ -33513,7 +33519,7 @@
         <v>4</v>
       </c>
       <c r="B281" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C281" s="26" t="s">
         <v>187</v>
@@ -33539,7 +33545,7 @@
         <v>5</v>
       </c>
       <c r="B282" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C282" s="26" t="s">
         <v>187</v>
@@ -33565,7 +33571,7 @@
         <v>6</v>
       </c>
       <c r="B283" s="26" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C283" s="26" t="s">
         <v>187</v>
@@ -33591,7 +33597,7 @@
         <v>1</v>
       </c>
       <c r="B284" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C284" s="26" t="s">
         <v>187</v>
@@ -33617,7 +33623,7 @@
         <v>2</v>
       </c>
       <c r="B285" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C285" s="26" t="s">
         <v>187</v>
@@ -33643,7 +33649,7 @@
         <v>3</v>
       </c>
       <c r="B286" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C286" s="26" t="s">
         <v>187</v>
@@ -33669,7 +33675,7 @@
         <v>4</v>
       </c>
       <c r="B287" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C287" s="26" t="s">
         <v>187</v>
@@ -33695,7 +33701,7 @@
         <v>5</v>
       </c>
       <c r="B288" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C288" s="26" t="s">
         <v>187</v>
@@ -33721,7 +33727,7 @@
         <v>6</v>
       </c>
       <c r="B289" s="26" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="C289" s="26" t="s">
         <v>187</v>
